--- a/data/shared/shared_calcs.xlsx
+++ b/data/shared/shared_calcs.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/shared/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\BlackBlox\data\shared\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{25654CF8-2F7E-E545-A235-CA21DCBE6A62}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6280" yWindow="460" windowWidth="21380" windowHeight="17540" firstSheet="8" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6285" yWindow="465" windowWidth="21375" windowHeight="17535" firstSheet="8" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Coke" sheetId="1" r:id="rId1"/>
@@ -32,7 +31,7 @@
     <sheet name="CO2 Compress" sheetId="24" r:id="rId17"/>
     <sheet name="CO2 Storage" sheetId="14" r:id="rId18"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -48,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1524" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1550" uniqueCount="223">
   <si>
     <t>combustion</t>
   </si>
@@ -702,12 +701,27 @@
   </si>
   <si>
     <t>CO2 losses</t>
+  </si>
+  <si>
+    <t>carbon debt</t>
+  </si>
+  <si>
+    <t>embodied CO2</t>
+  </si>
+  <si>
+    <t>CO2 removal</t>
+  </si>
+  <si>
+    <t>debt CO2</t>
+  </si>
+  <si>
+    <t>carbon debt factor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -906,8 +920,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 3" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1218,21 +1232,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>29</v>
       </c>
@@ -1264,7 +1278,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1287,7 +1301,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1310,7 +1324,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1333,7 +1347,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>121</v>
       </c>
@@ -1356,7 +1370,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>121</v>
       </c>
@@ -1376,7 +1390,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>121</v>
       </c>
@@ -1399,7 +1413,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>121</v>
       </c>
@@ -1419,7 +1433,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>19</v>
       </c>
@@ -1442,7 +1456,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
@@ -1462,7 +1476,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>179</v>
       </c>
@@ -1482,7 +1496,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>179</v>
       </c>
@@ -1508,21 +1522,21 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:J10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView topLeftCell="R2" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
@@ -1554,7 +1568,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>193</v>
       </c>
@@ -1577,7 +1591,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -1600,7 +1614,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" s="22" t="s">
         <v>19</v>
       </c>
@@ -1617,7 +1631,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1640,7 +1654,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="33" t="s">
         <v>93</v>
@@ -1659,7 +1673,7 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -1682,7 +1696,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" s="34" t="s">
         <v>193</v>
       </c>
@@ -1702,7 +1716,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>179</v>
       </c>
@@ -1722,7 +1736,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" t="s">
         <v>195</v>
@@ -1738,6 +1752,49 @@
       </c>
       <c r="F10" s="31" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>218</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>219</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="35" t="s">
+        <v>219</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="34" t="s">
+        <v>221</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -1746,20 +1803,20 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:J25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.6640625" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.625" customWidth="1"/>
+    <col min="4" max="4" width="19.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
@@ -1791,7 +1848,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>145</v>
       </c>
@@ -1817,7 +1874,7 @@
       <c r="I2" s="22"/>
       <c r="J2" s="22"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1841,7 +1898,7 @@
       </c>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="21" t="s">
         <v>141</v>
@@ -1863,7 +1920,7 @@
       </c>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="21" t="s">
         <v>141</v>
@@ -1885,7 +1942,7 @@
       </c>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="10" t="s">
         <v>93</v>
@@ -1905,7 +1962,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="10" t="s">
         <v>54</v>
@@ -1925,7 +1982,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>19</v>
       </c>
@@ -1948,7 +2005,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="22" t="s">
         <v>19</v>
       </c>
@@ -1965,7 +2022,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>73</v>
       </c>
@@ -1988,7 +2045,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>167</v>
       </c>
@@ -2011,7 +2068,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>170</v>
       </c>
@@ -2034,7 +2091,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>106</v>
       </c>
@@ -2057,7 +2114,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="22" t="s">
         <v>144</v>
       </c>
@@ -2077,7 +2134,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="23" t="s">
         <v>150</v>
       </c>
@@ -2100,7 +2157,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="23"/>
       <c r="B16" s="28" t="s">
         <v>177</v>
@@ -2119,7 +2176,7 @@
       </c>
       <c r="G16" s="23"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>146</v>
       </c>
@@ -2145,7 +2202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B18" s="24" t="s">
         <v>144</v>
       </c>
@@ -2162,7 +2219,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B19" s="24" t="s">
         <v>159</v>
       </c>
@@ -2185,7 +2242,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B20" s="24" t="s">
         <v>73</v>
       </c>
@@ -2208,7 +2265,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>172</v>
       </c>
@@ -2231,7 +2288,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>173</v>
       </c>
@@ -2254,7 +2311,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B23" s="22" t="s">
         <v>162</v>
       </c>
@@ -2277,7 +2334,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>179</v>
       </c>
@@ -2297,7 +2354,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>179</v>
       </c>
@@ -2315,6 +2372,49 @@
       </c>
       <c r="F25" s="31" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>218</v>
+      </c>
+      <c r="B26" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="C26" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="34" t="s">
+        <v>219</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="35" t="s">
+        <v>219</v>
+      </c>
+      <c r="C27" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="34" t="s">
+        <v>221</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F27" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -2323,16 +2423,16 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
@@ -2366,7 +2466,7 @@
       <c r="K1" s="9"/>
       <c r="L1" s="9"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>75</v>
       </c>
@@ -2394,7 +2494,7 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>75</v>
       </c>
@@ -2422,7 +2522,7 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>72</v>
       </c>
@@ -2450,7 +2550,7 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>72</v>
       </c>
@@ -2476,7 +2576,7 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>179</v>
       </c>
@@ -2502,7 +2602,7 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>179</v>
       </c>
@@ -2534,26 +2634,26 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="1"/>
-    <col min="2" max="2" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.875" style="1"/>
+    <col min="2" max="2" width="11.375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.83203125" style="1"/>
+    <col min="4" max="4" width="17.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
@@ -2585,7 +2685,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" s="15" t="s">
         <v>19</v>
       </c>
@@ -2605,7 +2705,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2625,7 +2725,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" s="23" t="s">
         <v>19</v>
       </c>
@@ -2645,7 +2745,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>179</v>
       </c>
@@ -2665,7 +2765,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>179</v>
       </c>
@@ -2691,16 +2791,16 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
@@ -2732,7 +2832,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
       <c r="B2" s="35" t="s">
         <v>111</v>
@@ -2756,7 +2856,7 @@
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="35" t="s">
         <v>54</v>
@@ -2780,7 +2880,7 @@
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="35" t="s">
         <v>111</v>
@@ -2804,7 +2904,7 @@
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
     </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B5" s="33" t="s">
         <v>93</v>
       </c>
@@ -2824,7 +2924,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>72</v>
       </c>
@@ -2847,7 +2947,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>72</v>
       </c>
@@ -2868,7 +2968,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>179</v>
       </c>
@@ -2888,7 +2988,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>179</v>
       </c>
@@ -2914,26 +3014,26 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="1"/>
-    <col min="2" max="2" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.875" style="1"/>
+    <col min="2" max="2" width="11.375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.83203125" style="1"/>
+    <col min="4" max="4" width="19.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
@@ -2965,7 +3065,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
         <v>106</v>
       </c>
@@ -2991,7 +3091,7 @@
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="13" t="s">
         <v>106</v>
       </c>
@@ -3014,7 +3114,7 @@
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" s="13" t="s">
         <v>107</v>
       </c>
@@ -3034,7 +3134,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" s="13" t="s">
         <v>107</v>
       </c>
@@ -3054,7 +3154,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
         <v>72</v>
       </c>
@@ -3077,7 +3177,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="15" t="s">
         <v>19</v>
       </c>
@@ -3094,7 +3194,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" s="33" t="s">
         <v>216</v>
       </c>
@@ -3114,7 +3214,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="15" t="s">
         <v>111</v>
       </c>
@@ -3131,7 +3231,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
         <v>150</v>
       </c>
@@ -3154,7 +3254,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="23"/>
       <c r="B11" s="28" t="s">
         <v>177</v>
@@ -3179,26 +3279,26 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9507DF2-D8F8-0B40-8678-5267C4E8FA82}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="1"/>
-    <col min="2" max="2" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.875" style="1"/>
+    <col min="2" max="2" width="11.375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.83203125" style="1"/>
+    <col min="4" max="4" width="19.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
@@ -3230,7 +3330,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
         <v>106</v>
       </c>
@@ -3256,7 +3356,7 @@
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="13" t="s">
         <v>106</v>
       </c>
@@ -3279,7 +3379,7 @@
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" s="13" t="s">
         <v>107</v>
       </c>
@@ -3299,7 +3399,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" s="13" t="s">
         <v>107</v>
       </c>
@@ -3319,7 +3419,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
         <v>72</v>
       </c>
@@ -3342,7 +3442,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="15" t="s">
         <v>19</v>
       </c>
@@ -3359,7 +3459,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" s="33" t="s">
         <v>216</v>
       </c>
@@ -3379,7 +3479,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="15" t="s">
         <v>111</v>
       </c>
@@ -3396,7 +3496,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
         <v>150</v>
       </c>
@@ -3419,7 +3519,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="23"/>
       <c r="B11" s="28" t="s">
         <v>177</v>
@@ -3444,16 +3544,16 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB37DD3A-244E-E941-BEB9-43BF9377FFBD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
@@ -3485,7 +3585,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
         <v>106</v>
       </c>
@@ -3511,7 +3611,7 @@
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="35" t="s">
         <v>216</v>
       </c>
@@ -3531,7 +3631,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
         <v>72</v>
       </c>
@@ -3554,7 +3654,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="15" t="s">
         <v>19</v>
@@ -3579,22 +3679,22 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
@@ -3626,7 +3726,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" s="16" t="s">
         <v>119</v>
       </c>
@@ -3646,7 +3746,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="16" t="s">
         <v>119</v>
       </c>
@@ -3666,7 +3766,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>156</v>
       </c>
@@ -3686,7 +3786,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>12</v>
       </c>
@@ -3703,7 +3803,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>119</v>
       </c>
@@ -3723,7 +3823,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>175</v>
       </c>
@@ -3740,7 +3840,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>156</v>
       </c>
@@ -3766,16 +3866,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>29</v>
       </c>
@@ -3807,7 +3907,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>36</v>
       </c>
@@ -3830,7 +3930,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>36</v>
       </c>
@@ -3853,7 +3953,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -3879,7 +3979,7 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -3905,7 +4005,7 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>19</v>
       </c>
@@ -3928,7 +4028,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>19</v>
       </c>
@@ -3948,7 +4048,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>179</v>
       </c>
@@ -3969,7 +4069,7 @@
       </c>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>179</v>
       </c>
@@ -3996,20 +4096,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>29</v>
       </c>
@@ -4041,7 +4141,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -4064,7 +4164,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -4084,7 +4184,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -4107,7 +4207,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -4130,7 +4230,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -4150,7 +4250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -4170,7 +4270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>59</v>
       </c>
@@ -4193,7 +4293,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>59</v>
       </c>
@@ -4216,7 +4316,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
@@ -4239,7 +4339,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
@@ -4259,7 +4359,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>179</v>
       </c>
@@ -4279,7 +4379,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>179</v>
       </c>
@@ -4305,20 +4405,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2:G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>29</v>
       </c>
@@ -4350,7 +4450,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -4373,7 +4473,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -4393,7 +4493,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -4416,7 +4516,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -4439,7 +4539,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -4459,7 +4559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -4479,7 +4579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>32</v>
       </c>
@@ -4502,7 +4602,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>32</v>
       </c>
@@ -4525,7 +4625,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
@@ -4548,7 +4648,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
@@ -4568,7 +4668,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>179</v>
       </c>
@@ -4588,7 +4688,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>179</v>
       </c>
@@ -4614,20 +4714,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>29</v>
       </c>
@@ -4659,7 +4759,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
@@ -4682,7 +4782,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>15</v>
       </c>
@@ -4705,7 +4805,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>52</v>
       </c>
@@ -4728,7 +4828,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>52</v>
       </c>
@@ -4748,7 +4848,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>52</v>
       </c>
@@ -4771,7 +4871,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>52</v>
       </c>
@@ -4794,7 +4894,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>52</v>
       </c>
@@ -4814,7 +4914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>52</v>
       </c>
@@ -4834,7 +4934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>132</v>
       </c>
@@ -4857,7 +4957,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
         <v>132</v>
       </c>
@@ -4877,7 +4977,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
         <v>132</v>
       </c>
@@ -4900,7 +5000,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>132</v>
       </c>
@@ -4923,7 +5023,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
         <v>132</v>
       </c>
@@ -4943,7 +5043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>132</v>
       </c>
@@ -4964,7 +5064,7 @@
       </c>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
         <v>132</v>
       </c>
@@ -4988,7 +5088,7 @@
       </c>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>19</v>
       </c>
@@ -5011,7 +5111,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>19</v>
       </c>
@@ -5031,7 +5131,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>10</v>
       </c>
@@ -5054,7 +5154,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>10</v>
       </c>
@@ -5074,7 +5174,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>9</v>
       </c>
@@ -5100,7 +5200,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>9</v>
       </c>
@@ -5126,7 +5226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>179</v>
       </c>
@@ -5146,7 +5246,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>179</v>
       </c>
@@ -5172,20 +5272,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="A7:G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="22.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.625" customWidth="1"/>
+    <col min="4" max="4" width="22.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
@@ -5217,7 +5317,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>139</v>
       </c>
@@ -5240,7 +5340,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="22" t="s">
         <v>155</v>
       </c>
@@ -5260,7 +5360,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" s="22" t="s">
         <v>19</v>
       </c>
@@ -5277,7 +5377,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>73</v>
       </c>
@@ -5300,7 +5400,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="22" t="s">
         <v>73</v>
       </c>
@@ -5317,7 +5417,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -5340,7 +5440,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
@@ -5363,7 +5463,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
@@ -5386,7 +5486,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
@@ -5406,7 +5506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
@@ -5426,7 +5526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>142</v>
       </c>
@@ -5452,7 +5552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>179</v>
       </c>
@@ -5472,7 +5572,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>179</v>
       </c>
@@ -5499,21 +5599,21 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>29</v>
       </c>
@@ -5545,7 +5645,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -5568,7 +5668,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -5591,7 +5691,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>16</v>
       </c>
@@ -5618,7 +5718,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>16</v>
       </c>
@@ -5645,7 +5745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>64</v>
       </c>
@@ -5668,7 +5768,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>64</v>
       </c>
@@ -5688,7 +5788,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>64</v>
       </c>
@@ -5711,7 +5811,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>64</v>
       </c>
@@ -5734,7 +5834,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>64</v>
       </c>
@@ -5754,7 +5854,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>64</v>
       </c>
@@ -5774,7 +5874,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>10</v>
       </c>
@@ -5797,7 +5897,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>10</v>
       </c>
@@ -5818,7 +5918,7 @@
       </c>
       <c r="G13" s="5"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>19</v>
       </c>
@@ -5841,7 +5941,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>19</v>
       </c>
@@ -5861,7 +5961,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>82</v>
       </c>
@@ -5884,7 +5984,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>82</v>
       </c>
@@ -5904,7 +6004,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>179</v>
       </c>
@@ -5924,7 +6024,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>179</v>
       </c>
@@ -5950,20 +6050,20 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
@@ -5995,7 +6095,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -6018,7 +6118,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>33</v>
       </c>
@@ -6038,7 +6138,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -6061,7 +6161,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>126</v>
       </c>
@@ -6084,7 +6184,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>104</v>
       </c>
@@ -6107,7 +6207,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>138</v>
       </c>
@@ -6130,7 +6230,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>106</v>
       </c>
@@ -6153,7 +6253,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>12</v>
       </c>
@@ -6170,7 +6270,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>72</v>
       </c>
@@ -6193,7 +6293,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>19</v>
       </c>
@@ -6210,7 +6310,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>33</v>
       </c>
@@ -6230,7 +6330,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>129</v>
       </c>
@@ -6250,7 +6350,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>129</v>
       </c>
@@ -6270,7 +6370,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>54</v>
       </c>
@@ -6287,7 +6387,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>3</v>
       </c>
@@ -6304,7 +6404,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>73</v>
       </c>
@@ -6327,7 +6427,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>73</v>
       </c>
@@ -6344,7 +6444,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>179</v>
       </c>
@@ -6364,7 +6464,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>179</v>
       </c>
@@ -6390,16 +6490,16 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
@@ -6422,7 +6522,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>16</v>
       </c>
@@ -6445,7 +6545,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="22" t="s">
         <v>33</v>
@@ -6466,7 +6566,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="27" t="s">
         <v>147</v>
@@ -6485,7 +6585,7 @@
       </c>
       <c r="G4" s="22"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
       <c r="B5" s="27" t="s">
         <v>176</v>
@@ -6504,7 +6604,7 @@
       </c>
       <c r="G5" s="22"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -6527,7 +6627,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" s="22" t="s">
         <v>19</v>
       </c>
@@ -6544,7 +6644,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>73</v>
       </c>
@@ -6567,7 +6667,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" s="22" t="s">
         <v>73</v>
       </c>
@@ -6584,7 +6684,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>10</v>
       </c>
@@ -6607,7 +6707,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="5" t="s">
         <v>38</v>
@@ -6626,7 +6726,7 @@
       </c>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>179</v>
       </c>
@@ -6646,7 +6746,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" t="s">
         <v>187</v>
@@ -6664,7 +6764,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>213</v>
       </c>
@@ -6684,7 +6784,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="35" t="s">
         <v>214</v>
       </c>

--- a/data/shared/shared_calcs.xlsx
+++ b/data/shared/shared_calcs.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\BlackBlox\data\shared\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/shared/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C7F2207-AEAA-DB40-9882-6AB0E0B07026}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6285" yWindow="465" windowWidth="21375" windowHeight="17535" firstSheet="8" activeTab="10"/>
+    <workbookView xWindow="6280" yWindow="460" windowWidth="21380" windowHeight="17540" firstSheet="8" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Coke" sheetId="1" r:id="rId1"/>
@@ -31,7 +32,7 @@
     <sheet name="CO2 Compress" sheetId="24" r:id="rId17"/>
     <sheet name="CO2 Storage" sheetId="14" r:id="rId18"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -721,7 +722,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -920,8 +921,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 3" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1232,21 +1233,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>29</v>
       </c>
@@ -1278,7 +1279,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1301,7 +1302,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1324,7 +1325,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1347,7 +1348,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
         <v>121</v>
       </c>
@@ -1370,7 +1371,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
         <v>121</v>
       </c>
@@ -1390,7 +1391,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>121</v>
       </c>
@@ -1413,7 +1414,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
         <v>121</v>
       </c>
@@ -1433,7 +1434,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>19</v>
       </c>
@@ -1456,7 +1457,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
@@ -1476,7 +1477,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>179</v>
       </c>
@@ -1496,7 +1497,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>179</v>
       </c>
@@ -1522,21 +1523,21 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
@@ -1568,7 +1569,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>193</v>
       </c>
@@ -1591,7 +1592,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -1614,7 +1615,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" s="22" t="s">
         <v>19</v>
       </c>
@@ -1631,7 +1632,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1654,7 +1655,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="33" t="s">
         <v>93</v>
@@ -1673,7 +1674,7 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -1696,7 +1697,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" s="34" t="s">
         <v>193</v>
       </c>
@@ -1716,7 +1717,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>179</v>
       </c>
@@ -1736,7 +1737,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" t="s">
         <v>195</v>
@@ -1754,7 +1755,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>218</v>
       </c>
@@ -1777,7 +1778,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12" s="35" t="s">
         <v>219</v>
       </c>
@@ -1803,20 +1804,20 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A26" sqref="A26:G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="21.625" customWidth="1"/>
-    <col min="4" max="4" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
@@ -1848,7 +1849,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="22" t="s">
         <v>145</v>
       </c>
@@ -1874,7 +1875,7 @@
       <c r="I2" s="22"/>
       <c r="J2" s="22"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1898,7 +1899,7 @@
       </c>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="21" t="s">
         <v>141</v>
@@ -1920,7 +1921,7 @@
       </c>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="21" t="s">
         <v>141</v>
@@ -1942,7 +1943,7 @@
       </c>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="10" t="s">
         <v>93</v>
@@ -1962,7 +1963,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="10" t="s">
         <v>54</v>
@@ -1982,7 +1983,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>19</v>
       </c>
@@ -2005,7 +2006,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" s="22" t="s">
         <v>19</v>
       </c>
@@ -2022,7 +2023,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>73</v>
       </c>
@@ -2045,7 +2046,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>167</v>
       </c>
@@ -2068,7 +2069,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>170</v>
       </c>
@@ -2091,7 +2092,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>106</v>
       </c>
@@ -2114,7 +2115,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" s="22" t="s">
         <v>144</v>
       </c>
@@ -2134,7 +2135,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="23" t="s">
         <v>150</v>
       </c>
@@ -2157,7 +2158,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="23"/>
       <c r="B16" s="28" t="s">
         <v>177</v>
@@ -2176,7 +2177,7 @@
       </c>
       <c r="G16" s="23"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>146</v>
       </c>
@@ -2202,7 +2203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B18" s="24" t="s">
         <v>144</v>
       </c>
@@ -2219,7 +2220,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B19" s="24" t="s">
         <v>159</v>
       </c>
@@ -2242,7 +2243,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B20" s="24" t="s">
         <v>73</v>
       </c>
@@ -2265,7 +2266,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>172</v>
       </c>
@@ -2288,7 +2289,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>173</v>
       </c>
@@ -2311,7 +2312,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B23" s="22" t="s">
         <v>162</v>
       </c>
@@ -2334,7 +2335,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>179</v>
       </c>
@@ -2354,7 +2355,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>179</v>
       </c>
@@ -2374,7 +2375,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>218</v>
       </c>
@@ -2397,7 +2398,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B27" s="35" t="s">
         <v>219</v>
       </c>
@@ -2423,16 +2424,16 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
@@ -2466,7 +2467,7 @@
       <c r="K1" s="9"/>
       <c r="L1" s="9"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>75</v>
       </c>
@@ -2494,7 +2495,7 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>75</v>
       </c>
@@ -2522,7 +2523,7 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>72</v>
       </c>
@@ -2550,7 +2551,7 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>72</v>
       </c>
@@ -2576,7 +2577,7 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>179</v>
       </c>
@@ -2602,7 +2603,7 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>179</v>
       </c>
@@ -2634,26 +2635,26 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="1"/>
-    <col min="2" max="2" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="1"/>
+    <col min="2" max="2" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.875" style="1"/>
+    <col min="4" max="4" width="17.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
@@ -2685,7 +2686,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B2" s="15" t="s">
         <v>19</v>
       </c>
@@ -2705,7 +2706,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2725,7 +2726,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" s="23" t="s">
         <v>19</v>
       </c>
@@ -2745,7 +2746,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>179</v>
       </c>
@@ -2765,7 +2766,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>179</v>
       </c>
@@ -2791,16 +2792,16 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
@@ -2832,7 +2833,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9"/>
       <c r="B2" s="35" t="s">
         <v>111</v>
@@ -2856,7 +2857,7 @@
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="9"/>
       <c r="B3" s="35" t="s">
         <v>54</v>
@@ -2880,7 +2881,7 @@
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9"/>
       <c r="B4" s="35" t="s">
         <v>111</v>
@@ -2904,7 +2905,7 @@
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
     </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="B5" s="33" t="s">
         <v>93</v>
       </c>
@@ -2924,7 +2925,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>72</v>
       </c>
@@ -2947,7 +2948,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>72</v>
       </c>
@@ -2968,7 +2969,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>179</v>
       </c>
@@ -2988,7 +2989,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>179</v>
       </c>
@@ -3014,26 +3015,26 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="1"/>
-    <col min="2" max="2" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="1"/>
+    <col min="2" max="2" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.875" style="1"/>
+    <col min="4" max="4" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
@@ -3065,7 +3066,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="23" t="s">
         <v>106</v>
       </c>
@@ -3091,7 +3092,7 @@
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" s="13" t="s">
         <v>106</v>
       </c>
@@ -3114,7 +3115,7 @@
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" s="13" t="s">
         <v>107</v>
       </c>
@@ -3134,7 +3135,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" s="13" t="s">
         <v>107</v>
       </c>
@@ -3154,7 +3155,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="23" t="s">
         <v>72</v>
       </c>
@@ -3177,7 +3178,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" s="15" t="s">
         <v>19</v>
       </c>
@@ -3194,7 +3195,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" s="33" t="s">
         <v>216</v>
       </c>
@@ -3214,7 +3215,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" s="15" t="s">
         <v>111</v>
       </c>
@@ -3231,7 +3232,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="23" t="s">
         <v>150</v>
       </c>
@@ -3254,7 +3255,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="23"/>
       <c r="B11" s="28" t="s">
         <v>177</v>
@@ -3279,26 +3280,26 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="1"/>
-    <col min="2" max="2" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="1"/>
+    <col min="2" max="2" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.875" style="1"/>
+    <col min="4" max="4" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
@@ -3330,7 +3331,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="23" t="s">
         <v>106</v>
       </c>
@@ -3356,7 +3357,7 @@
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" s="13" t="s">
         <v>106</v>
       </c>
@@ -3379,7 +3380,7 @@
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" s="13" t="s">
         <v>107</v>
       </c>
@@ -3399,7 +3400,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" s="13" t="s">
         <v>107</v>
       </c>
@@ -3419,7 +3420,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="23" t="s">
         <v>72</v>
       </c>
@@ -3442,7 +3443,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" s="15" t="s">
         <v>19</v>
       </c>
@@ -3459,7 +3460,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" s="33" t="s">
         <v>216</v>
       </c>
@@ -3479,7 +3480,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" s="15" t="s">
         <v>111</v>
       </c>
@@ -3496,7 +3497,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="23" t="s">
         <v>150</v>
       </c>
@@ -3519,7 +3520,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="23"/>
       <c r="B11" s="28" t="s">
         <v>177</v>
@@ -3544,16 +3545,16 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
@@ -3585,7 +3586,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="23" t="s">
         <v>106</v>
       </c>
@@ -3611,7 +3612,7 @@
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" s="35" t="s">
         <v>216</v>
       </c>
@@ -3631,7 +3632,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="s">
         <v>72</v>
       </c>
@@ -3654,7 +3655,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="15" t="s">
         <v>19</v>
@@ -3679,22 +3680,22 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
@@ -3726,7 +3727,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B2" s="16" t="s">
         <v>119</v>
       </c>
@@ -3746,7 +3747,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" s="16" t="s">
         <v>119</v>
       </c>
@@ -3766,7 +3767,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>156</v>
       </c>
@@ -3786,7 +3787,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>12</v>
       </c>
@@ -3803,7 +3804,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>119</v>
       </c>
@@ -3823,7 +3824,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>175</v>
       </c>
@@ -3840,7 +3841,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>156</v>
       </c>
@@ -3866,16 +3867,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>29</v>
       </c>
@@ -3907,7 +3908,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>36</v>
       </c>
@@ -3930,7 +3931,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>36</v>
       </c>
@@ -3953,7 +3954,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -3979,7 +3980,7 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -4005,7 +4006,7 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>19</v>
       </c>
@@ -4028,7 +4029,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>19</v>
       </c>
@@ -4048,7 +4049,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>179</v>
       </c>
@@ -4069,7 +4070,7 @@
       </c>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>179</v>
       </c>
@@ -4096,20 +4097,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="23.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>29</v>
       </c>
@@ -4141,7 +4142,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -4164,7 +4165,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -4184,7 +4185,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -4207,7 +4208,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -4230,7 +4231,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -4250,7 +4251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -4270,7 +4271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>59</v>
       </c>
@@ -4293,7 +4294,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>59</v>
       </c>
@@ -4316,7 +4317,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
@@ -4339,7 +4340,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
@@ -4359,7 +4360,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>179</v>
       </c>
@@ -4379,7 +4380,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>179</v>
       </c>
@@ -4405,20 +4406,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2:G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="23.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>29</v>
       </c>
@@ -4450,7 +4451,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -4473,7 +4474,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -4493,7 +4494,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -4516,7 +4517,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -4539,7 +4540,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -4559,7 +4560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -4579,7 +4580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>32</v>
       </c>
@@ -4602,7 +4603,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>32</v>
       </c>
@@ -4625,7 +4626,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
@@ -4648,7 +4649,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
@@ -4668,7 +4669,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>179</v>
       </c>
@@ -4688,7 +4689,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>179</v>
       </c>
@@ -4714,20 +4715,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="23.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>29</v>
       </c>
@@ -4759,7 +4760,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
@@ -4782,7 +4783,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>15</v>
       </c>
@@ -4805,7 +4806,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>52</v>
       </c>
@@ -4828,7 +4829,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>52</v>
       </c>
@@ -4848,7 +4849,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>52</v>
       </c>
@@ -4871,7 +4872,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>52</v>
       </c>
@@ -4894,7 +4895,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>52</v>
       </c>
@@ -4914,7 +4915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>52</v>
       </c>
@@ -4934,7 +4935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
         <v>132</v>
       </c>
@@ -4957,7 +4958,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
         <v>132</v>
       </c>
@@ -4977,7 +4978,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
         <v>132</v>
       </c>
@@ -5000,7 +5001,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
         <v>132</v>
       </c>
@@ -5023,7 +5024,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
         <v>132</v>
       </c>
@@ -5043,7 +5044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="18" t="s">
         <v>132</v>
       </c>
@@ -5064,7 +5065,7 @@
       </c>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="18" t="s">
         <v>132</v>
       </c>
@@ -5088,7 +5089,7 @@
       </c>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>19</v>
       </c>
@@ -5111,7 +5112,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>19</v>
       </c>
@@ -5131,7 +5132,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
         <v>10</v>
       </c>
@@ -5154,7 +5155,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>10</v>
       </c>
@@ -5174,7 +5175,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>9</v>
       </c>
@@ -5200,7 +5201,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>9</v>
       </c>
@@ -5226,7 +5227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>179</v>
       </c>
@@ -5246,7 +5247,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>179</v>
       </c>
@@ -5272,20 +5273,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="A7:G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15.625" customWidth="1"/>
-    <col min="4" max="4" width="22.625" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
@@ -5317,7 +5318,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="22" t="s">
         <v>139</v>
       </c>
@@ -5340,7 +5341,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" s="22" t="s">
         <v>155</v>
       </c>
@@ -5360,7 +5361,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" s="22" t="s">
         <v>19</v>
       </c>
@@ -5377,7 +5378,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>73</v>
       </c>
@@ -5400,7 +5401,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" s="22" t="s">
         <v>73</v>
       </c>
@@ -5417,7 +5418,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -5440,7 +5441,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
@@ -5463,7 +5464,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
@@ -5486,7 +5487,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
@@ -5506,7 +5507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
@@ -5526,7 +5527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>142</v>
       </c>
@@ -5552,7 +5553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>179</v>
       </c>
@@ -5572,7 +5573,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>179</v>
       </c>
@@ -5599,21 +5600,21 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>29</v>
       </c>
@@ -5645,7 +5646,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -5668,7 +5669,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -5691,7 +5692,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>16</v>
       </c>
@@ -5718,7 +5719,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>16</v>
       </c>
@@ -5745,7 +5746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>64</v>
       </c>
@@ -5768,7 +5769,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>64</v>
       </c>
@@ -5788,7 +5789,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>64</v>
       </c>
@@ -5811,7 +5812,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>64</v>
       </c>
@@ -5834,7 +5835,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>64</v>
       </c>
@@ -5854,7 +5855,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>64</v>
       </c>
@@ -5874,7 +5875,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>10</v>
       </c>
@@ -5897,7 +5898,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>10</v>
       </c>
@@ -5918,7 +5919,7 @@
       </c>
       <c r="G13" s="5"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>19</v>
       </c>
@@ -5941,7 +5942,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>19</v>
       </c>
@@ -5961,7 +5962,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>82</v>
       </c>
@@ -5984,7 +5985,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>82</v>
       </c>
@@ -6004,7 +6005,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>179</v>
       </c>
@@ -6024,7 +6025,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>179</v>
       </c>
@@ -6050,20 +6051,20 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
@@ -6095,7 +6096,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -6118,7 +6119,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>33</v>
       </c>
@@ -6138,7 +6139,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -6161,7 +6162,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>126</v>
       </c>
@@ -6184,7 +6185,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>104</v>
       </c>
@@ -6207,7 +6208,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>138</v>
       </c>
@@ -6230,7 +6231,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>106</v>
       </c>
@@ -6253,7 +6254,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>12</v>
       </c>
@@ -6270,7 +6271,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>72</v>
       </c>
@@ -6293,7 +6294,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>19</v>
       </c>
@@ -6310,7 +6311,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>33</v>
       </c>
@@ -6330,7 +6331,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>129</v>
       </c>
@@ -6350,7 +6351,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>129</v>
       </c>
@@ -6370,7 +6371,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>54</v>
       </c>
@@ -6387,7 +6388,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>3</v>
       </c>
@@ -6404,7 +6405,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>73</v>
       </c>
@@ -6427,7 +6428,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>73</v>
       </c>
@@ -6444,7 +6445,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>179</v>
       </c>
@@ -6464,7 +6465,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>179</v>
       </c>
@@ -6490,16 +6491,16 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
@@ -6522,7 +6523,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="22" t="s">
         <v>16</v>
       </c>
@@ -6545,7 +6546,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="9"/>
       <c r="B3" s="22" t="s">
         <v>33</v>
@@ -6566,7 +6567,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="9"/>
       <c r="B4" s="27" t="s">
         <v>147</v>
@@ -6585,7 +6586,7 @@
       </c>
       <c r="G4" s="22"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="9"/>
       <c r="B5" s="27" t="s">
         <v>176</v>
@@ -6604,7 +6605,7 @@
       </c>
       <c r="G5" s="22"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -6627,7 +6628,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B7" s="22" t="s">
         <v>19</v>
       </c>
@@ -6644,7 +6645,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>73</v>
       </c>
@@ -6667,7 +6668,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B9" s="22" t="s">
         <v>73</v>
       </c>
@@ -6684,7 +6685,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>10</v>
       </c>
@@ -6707,7 +6708,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="5" t="s">
         <v>38</v>
@@ -6726,7 +6727,7 @@
       </c>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>179</v>
       </c>
@@ -6746,7 +6747,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" t="s">
         <v>187</v>
@@ -6764,7 +6765,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>213</v>
       </c>
@@ -6784,7 +6785,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B15" s="35" t="s">
         <v>214</v>
       </c>

--- a/data/shared/shared_calcs.xlsx
+++ b/data/shared/shared_calcs.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/shared/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\BlackBlox\data\shared\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C7F2207-AEAA-DB40-9882-6AB0E0B07026}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6280" yWindow="460" windowWidth="21380" windowHeight="17540" firstSheet="8" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6285" yWindow="465" windowWidth="21375" windowHeight="17535" firstSheet="8" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Coke" sheetId="1" r:id="rId1"/>
@@ -28,11 +27,12 @@
     <sheet name="Electricity" sheetId="10" r:id="rId13"/>
     <sheet name="Heat" sheetId="16" r:id="rId14"/>
     <sheet name="CO2 Capture" sheetId="13" r:id="rId15"/>
-    <sheet name="CO2 Cap Aux" sheetId="23" r:id="rId16"/>
-    <sheet name="CO2 Compress" sheetId="24" r:id="rId17"/>
-    <sheet name="CO2 Storage" sheetId="14" r:id="rId18"/>
+    <sheet name="CLC Capture" sheetId="25" r:id="rId16"/>
+    <sheet name="CO2 Cap Aux" sheetId="23" r:id="rId17"/>
+    <sheet name="CO2 Compress" sheetId="24" r:id="rId18"/>
+    <sheet name="CO2 Storage" sheetId="14" r:id="rId19"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1550" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1700" uniqueCount="238">
   <si>
     <t>combustion</t>
   </si>
@@ -717,12 +717,57 @@
   </si>
   <si>
     <t>carbon debt factor</t>
+  </si>
+  <si>
+    <t>CaCO3 demand</t>
+  </si>
+  <si>
+    <t>CO2__calcination</t>
+  </si>
+  <si>
+    <t>CO2__fluegas</t>
+  </si>
+  <si>
+    <t>captured CO2__fluegas</t>
+  </si>
+  <si>
+    <t>CO2 In</t>
+  </si>
+  <si>
+    <t>Fuel</t>
+  </si>
+  <si>
+    <t>Fuel Energy Demand</t>
+  </si>
+  <si>
+    <t>fuel energy</t>
+  </si>
+  <si>
+    <t>Biofuel Cofire Rate</t>
+  </si>
+  <si>
+    <t>lookupratio-fuels</t>
+  </si>
+  <si>
+    <t>CO2 Out</t>
+  </si>
+  <si>
+    <t>captured CO2__fossilfuel</t>
+  </si>
+  <si>
+    <t>captured CO2__biofuel</t>
+  </si>
+  <si>
+    <t>captured CO2__fuel</t>
+  </si>
+  <si>
+    <t>captured CO2__process</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -881,7 +926,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -918,11 +963,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 3" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1233,21 +1280,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>29</v>
       </c>
@@ -1279,7 +1326,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1302,7 +1349,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1325,7 +1372,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1348,7 +1395,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>121</v>
       </c>
@@ -1371,7 +1418,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>121</v>
       </c>
@@ -1391,7 +1438,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>121</v>
       </c>
@@ -1414,7 +1461,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>121</v>
       </c>
@@ -1434,7 +1481,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>19</v>
       </c>
@@ -1457,7 +1504,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
@@ -1477,7 +1524,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>179</v>
       </c>
@@ -1497,7 +1544,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>179</v>
       </c>
@@ -1523,21 +1570,21 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
@@ -1569,7 +1616,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>193</v>
       </c>
@@ -1592,7 +1639,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -1615,7 +1662,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" s="22" t="s">
         <v>19</v>
       </c>
@@ -1632,7 +1679,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1655,7 +1702,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="33" t="s">
         <v>93</v>
@@ -1674,7 +1721,7 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -1697,7 +1744,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" s="34" t="s">
         <v>193</v>
       </c>
@@ -1717,7 +1764,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>179</v>
       </c>
@@ -1737,7 +1784,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" t="s">
         <v>195</v>
@@ -1755,7 +1802,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>218</v>
       </c>
@@ -1778,7 +1825,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="35" t="s">
         <v>219</v>
       </c>
@@ -1804,20 +1851,20 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A26" sqref="A26:G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.6640625" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.625" customWidth="1"/>
+    <col min="4" max="4" width="19.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
@@ -1849,7 +1896,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>145</v>
       </c>
@@ -1875,7 +1922,7 @@
       <c r="I2" s="22"/>
       <c r="J2" s="22"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1899,7 +1946,7 @@
       </c>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="21" t="s">
         <v>141</v>
@@ -1921,7 +1968,7 @@
       </c>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="21" t="s">
         <v>141</v>
@@ -1943,7 +1990,7 @@
       </c>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="10" t="s">
         <v>93</v>
@@ -1963,7 +2010,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="10" t="s">
         <v>54</v>
@@ -1983,7 +2030,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>19</v>
       </c>
@@ -2006,7 +2053,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="22" t="s">
         <v>19</v>
       </c>
@@ -2023,7 +2070,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>73</v>
       </c>
@@ -2046,7 +2093,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>167</v>
       </c>
@@ -2069,7 +2116,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>170</v>
       </c>
@@ -2092,7 +2139,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>106</v>
       </c>
@@ -2115,7 +2162,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="22" t="s">
         <v>144</v>
       </c>
@@ -2135,7 +2182,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="23" t="s">
         <v>150</v>
       </c>
@@ -2158,7 +2205,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="23"/>
       <c r="B16" s="28" t="s">
         <v>177</v>
@@ -2177,7 +2224,7 @@
       </c>
       <c r="G16" s="23"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>146</v>
       </c>
@@ -2203,7 +2250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B18" s="24" t="s">
         <v>144</v>
       </c>
@@ -2220,7 +2267,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B19" s="24" t="s">
         <v>159</v>
       </c>
@@ -2243,7 +2290,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B20" s="24" t="s">
         <v>73</v>
       </c>
@@ -2266,7 +2313,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>172</v>
       </c>
@@ -2289,7 +2336,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>173</v>
       </c>
@@ -2312,7 +2359,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B23" s="22" t="s">
         <v>162</v>
       </c>
@@ -2335,7 +2382,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>179</v>
       </c>
@@ -2355,7 +2402,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>179</v>
       </c>
@@ -2375,7 +2422,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>218</v>
       </c>
@@ -2398,7 +2445,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B27" s="35" t="s">
         <v>219</v>
       </c>
@@ -2424,16 +2471,16 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
@@ -2467,7 +2514,7 @@
       <c r="K1" s="9"/>
       <c r="L1" s="9"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>75</v>
       </c>
@@ -2495,7 +2542,7 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>75</v>
       </c>
@@ -2523,7 +2570,7 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>72</v>
       </c>
@@ -2551,7 +2598,7 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>72</v>
       </c>
@@ -2577,7 +2624,7 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>179</v>
       </c>
@@ -2603,7 +2650,7 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>179</v>
       </c>
@@ -2635,26 +2682,26 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="1"/>
-    <col min="2" max="2" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.875" style="1"/>
+    <col min="2" max="2" width="11.375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.83203125" style="1"/>
+    <col min="4" max="4" width="17.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
@@ -2686,7 +2733,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" s="15" t="s">
         <v>19</v>
       </c>
@@ -2706,7 +2753,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2726,7 +2773,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" s="23" t="s">
         <v>19</v>
       </c>
@@ -2746,7 +2793,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>179</v>
       </c>
@@ -2766,7 +2813,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>179</v>
       </c>
@@ -2792,16 +2839,16 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
@@ -2833,7 +2880,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
       <c r="B2" s="35" t="s">
         <v>111</v>
@@ -2857,7 +2904,7 @@
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="35" t="s">
         <v>54</v>
@@ -2881,7 +2928,7 @@
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="35" t="s">
         <v>111</v>
@@ -2905,7 +2952,7 @@
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
     </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B5" s="33" t="s">
         <v>93</v>
       </c>
@@ -2925,7 +2972,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>72</v>
       </c>
@@ -2948,7 +2995,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>72</v>
       </c>
@@ -2969,7 +3016,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>179</v>
       </c>
@@ -2989,7 +3036,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>179</v>
       </c>
@@ -3015,26 +3062,26 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:J11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="1"/>
-    <col min="2" max="2" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.875" style="1"/>
+    <col min="2" max="2" width="11.375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.83203125" style="1"/>
+    <col min="4" max="4" width="19.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
@@ -3066,7 +3113,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
         <v>106</v>
       </c>
@@ -3092,7 +3139,7 @@
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="13" t="s">
         <v>106</v>
       </c>
@@ -3115,7 +3162,7 @@
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" s="13" t="s">
         <v>107</v>
       </c>
@@ -3135,7 +3182,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" s="13" t="s">
         <v>107</v>
       </c>
@@ -3155,7 +3202,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
         <v>72</v>
       </c>
@@ -3178,7 +3225,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="15" t="s">
         <v>19</v>
       </c>
@@ -3195,7 +3242,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" s="33" t="s">
         <v>216</v>
       </c>
@@ -3215,7 +3262,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="15" t="s">
         <v>111</v>
       </c>
@@ -3232,7 +3279,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
         <v>150</v>
       </c>
@@ -3255,7 +3302,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="23"/>
       <c r="B11" s="28" t="s">
         <v>177</v>
@@ -3273,6 +3320,60 @@
         <v>14</v>
       </c>
       <c r="G11" s="23"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>216</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="33" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>224</v>
+      </c>
+      <c r="E14" s="33" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3280,26 +3381,510 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.875" style="1"/>
+    <col min="2" max="2" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="33" t="s">
+        <v>227</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>225</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="35" t="s">
+        <v>225</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>226</v>
+      </c>
+      <c r="E4" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="35" t="s">
+        <v>225</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="35" t="s">
+        <v>225</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="33" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="33"/>
+      <c r="B7" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="33"/>
+      <c r="B8" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>224</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="33" t="s">
+        <v>228</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>225</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>230</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="36" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="33" t="s">
+        <v>230</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="36" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="33" t="s">
+        <v>230</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="36" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="E14" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="G14" s="33" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>235</v>
+      </c>
+      <c r="E15" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="G15" s="33" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="33" t="s">
+        <v>233</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>236</v>
+      </c>
+      <c r="E16" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33" t="s">
+        <v>235</v>
+      </c>
+      <c r="I16" s="33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="33" t="s">
+        <v>236</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="33" t="s">
+        <v>237</v>
+      </c>
+      <c r="E17" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33" t="s">
+        <v>224</v>
+      </c>
+      <c r="I17" s="33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="33" t="s">
+        <v>237</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="33" t="s">
+        <v>216</v>
+      </c>
+      <c r="E18" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33" t="s">
+        <v>226</v>
+      </c>
+      <c r="I18" s="33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>216</v>
+      </c>
+      <c r="C19" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>216</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="33" t="s">
+        <v>133</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="1"/>
-    <col min="2" max="2" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.875" style="1"/>
+    <col min="2" max="2" width="11.375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.83203125" style="1"/>
+    <col min="4" max="4" width="19.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
@@ -3331,7 +3916,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
         <v>106</v>
       </c>
@@ -3357,7 +3942,7 @@
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="13" t="s">
         <v>106</v>
       </c>
@@ -3380,7 +3965,7 @@
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" s="13" t="s">
         <v>107</v>
       </c>
@@ -3400,7 +3985,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" s="13" t="s">
         <v>107</v>
       </c>
@@ -3420,7 +4005,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
         <v>72</v>
       </c>
@@ -3443,7 +4028,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="15" t="s">
         <v>19</v>
       </c>
@@ -3460,7 +4045,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" s="33" t="s">
         <v>216</v>
       </c>
@@ -3480,7 +4065,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="15" t="s">
         <v>111</v>
       </c>
@@ -3497,7 +4082,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
         <v>150</v>
       </c>
@@ -3520,7 +4105,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="23"/>
       <c r="B11" s="28" t="s">
         <v>177</v>
@@ -3544,17 +4129,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
@@ -3586,7 +4171,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
         <v>106</v>
       </c>
@@ -3612,7 +4197,7 @@
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="35" t="s">
         <v>216</v>
       </c>
@@ -3632,7 +4217,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
         <v>72</v>
       </c>
@@ -3655,7 +4240,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="15" t="s">
         <v>19</v>
@@ -3679,23 +4264,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
@@ -3727,7 +4312,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" s="16" t="s">
         <v>119</v>
       </c>
@@ -3747,7 +4332,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="16" t="s">
         <v>119</v>
       </c>
@@ -3767,7 +4352,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>156</v>
       </c>
@@ -3787,7 +4372,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>12</v>
       </c>
@@ -3804,7 +4389,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>119</v>
       </c>
@@ -3824,7 +4409,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>175</v>
       </c>
@@ -3841,7 +4426,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>156</v>
       </c>
@@ -3867,16 +4452,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>29</v>
       </c>
@@ -3908,7 +4493,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>36</v>
       </c>
@@ -3931,7 +4516,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>36</v>
       </c>
@@ -3954,7 +4539,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -3980,7 +4565,7 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -4006,7 +4591,7 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>19</v>
       </c>
@@ -4029,7 +4614,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>19</v>
       </c>
@@ -4049,7 +4634,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>179</v>
       </c>
@@ -4070,7 +4655,7 @@
       </c>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>179</v>
       </c>
@@ -4097,20 +4682,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>29</v>
       </c>
@@ -4142,7 +4727,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -4165,7 +4750,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -4185,7 +4770,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -4208,7 +4793,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -4231,7 +4816,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -4251,7 +4836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -4271,7 +4856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>59</v>
       </c>
@@ -4294,7 +4879,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>59</v>
       </c>
@@ -4317,7 +4902,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
@@ -4340,7 +4925,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
@@ -4360,7 +4945,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>179</v>
       </c>
@@ -4380,7 +4965,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>179</v>
       </c>
@@ -4406,20 +4991,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2:G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>29</v>
       </c>
@@ -4451,7 +5036,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -4474,7 +5059,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -4494,7 +5079,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -4517,7 +5102,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -4540,7 +5125,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -4560,7 +5145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -4580,7 +5165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>32</v>
       </c>
@@ -4603,7 +5188,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>32</v>
       </c>
@@ -4626,7 +5211,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
@@ -4649,7 +5234,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
@@ -4669,7 +5254,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>179</v>
       </c>
@@ -4689,7 +5274,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>179</v>
       </c>
@@ -4715,20 +5300,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>29</v>
       </c>
@@ -4760,7 +5345,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
@@ -4783,7 +5368,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>15</v>
       </c>
@@ -4806,7 +5391,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>52</v>
       </c>
@@ -4829,7 +5414,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>52</v>
       </c>
@@ -4849,7 +5434,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>52</v>
       </c>
@@ -4872,7 +5457,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>52</v>
       </c>
@@ -4895,7 +5480,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>52</v>
       </c>
@@ -4915,7 +5500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>52</v>
       </c>
@@ -4935,7 +5520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>132</v>
       </c>
@@ -4958,7 +5543,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
         <v>132</v>
       </c>
@@ -4978,7 +5563,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
         <v>132</v>
       </c>
@@ -5001,7 +5586,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>132</v>
       </c>
@@ -5024,7 +5609,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
         <v>132</v>
       </c>
@@ -5044,7 +5629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>132</v>
       </c>
@@ -5065,7 +5650,7 @@
       </c>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
         <v>132</v>
       </c>
@@ -5089,7 +5674,7 @@
       </c>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>19</v>
       </c>
@@ -5112,7 +5697,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>19</v>
       </c>
@@ -5132,7 +5717,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>10</v>
       </c>
@@ -5155,7 +5740,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>10</v>
       </c>
@@ -5175,7 +5760,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>9</v>
       </c>
@@ -5201,7 +5786,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>9</v>
       </c>
@@ -5227,7 +5812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>179</v>
       </c>
@@ -5247,7 +5832,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>179</v>
       </c>
@@ -5273,20 +5858,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="A7:G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="22.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.625" customWidth="1"/>
+    <col min="4" max="4" width="22.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
@@ -5318,7 +5903,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>139</v>
       </c>
@@ -5341,7 +5926,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="22" t="s">
         <v>155</v>
       </c>
@@ -5361,7 +5946,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" s="22" t="s">
         <v>19</v>
       </c>
@@ -5378,7 +5963,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>73</v>
       </c>
@@ -5401,7 +5986,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="22" t="s">
         <v>73</v>
       </c>
@@ -5418,7 +6003,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -5441,7 +6026,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
@@ -5464,7 +6049,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
@@ -5487,7 +6072,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
@@ -5507,7 +6092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
@@ -5527,7 +6112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>142</v>
       </c>
@@ -5553,7 +6138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>179</v>
       </c>
@@ -5573,7 +6158,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>179</v>
       </c>
@@ -5600,21 +6185,21 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>29</v>
       </c>
@@ -5646,7 +6231,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -5669,7 +6254,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -5692,7 +6277,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>16</v>
       </c>
@@ -5719,7 +6304,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>16</v>
       </c>
@@ -5746,7 +6331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>64</v>
       </c>
@@ -5769,7 +6354,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>64</v>
       </c>
@@ -5789,7 +6374,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>64</v>
       </c>
@@ -5812,7 +6397,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>64</v>
       </c>
@@ -5835,7 +6420,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>64</v>
       </c>
@@ -5855,7 +6440,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>64</v>
       </c>
@@ -5875,7 +6460,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>10</v>
       </c>
@@ -5898,7 +6483,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>10</v>
       </c>
@@ -5919,7 +6504,7 @@
       </c>
       <c r="G13" s="5"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>19</v>
       </c>
@@ -5942,7 +6527,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>19</v>
       </c>
@@ -5962,7 +6547,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>82</v>
       </c>
@@ -5985,7 +6570,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>82</v>
       </c>
@@ -6005,7 +6590,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>179</v>
       </c>
@@ -6025,7 +6610,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>179</v>
       </c>
@@ -6051,20 +6636,20 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
@@ -6096,7 +6681,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -6119,7 +6704,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>33</v>
       </c>
@@ -6139,7 +6724,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -6162,7 +6747,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>126</v>
       </c>
@@ -6185,7 +6770,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>104</v>
       </c>
@@ -6208,7 +6793,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>138</v>
       </c>
@@ -6231,7 +6816,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>106</v>
       </c>
@@ -6254,7 +6839,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>12</v>
       </c>
@@ -6271,7 +6856,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>72</v>
       </c>
@@ -6294,7 +6879,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>19</v>
       </c>
@@ -6311,7 +6896,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>33</v>
       </c>
@@ -6331,7 +6916,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>129</v>
       </c>
@@ -6351,7 +6936,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>129</v>
       </c>
@@ -6371,7 +6956,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>54</v>
       </c>
@@ -6388,7 +6973,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>3</v>
       </c>
@@ -6405,7 +6990,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>73</v>
       </c>
@@ -6428,7 +7013,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>73</v>
       </c>
@@ -6445,7 +7030,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>179</v>
       </c>
@@ -6465,7 +7050,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>179</v>
       </c>
@@ -6491,16 +7076,16 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
@@ -6523,7 +7108,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>16</v>
       </c>
@@ -6546,7 +7131,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="22" t="s">
         <v>33</v>
@@ -6567,7 +7152,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="27" t="s">
         <v>147</v>
@@ -6586,7 +7171,7 @@
       </c>
       <c r="G4" s="22"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
       <c r="B5" s="27" t="s">
         <v>176</v>
@@ -6605,7 +7190,7 @@
       </c>
       <c r="G5" s="22"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -6628,7 +7213,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" s="22" t="s">
         <v>19</v>
       </c>
@@ -6645,7 +7230,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>73</v>
       </c>
@@ -6668,7 +7253,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" s="22" t="s">
         <v>73</v>
       </c>
@@ -6685,7 +7270,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>10</v>
       </c>
@@ -6708,7 +7293,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="5" t="s">
         <v>38</v>
@@ -6727,7 +7312,7 @@
       </c>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>179</v>
       </c>
@@ -6747,7 +7332,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" t="s">
         <v>187</v>
@@ -6765,7 +7350,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>213</v>
       </c>
@@ -6785,7 +7370,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="35" t="s">
         <v>214</v>
       </c>

--- a/data/shared/shared_calcs.xlsx
+++ b/data/shared/shared_calcs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6285" yWindow="465" windowWidth="21375" windowHeight="17535" firstSheet="8" activeTab="15"/>
+    <workbookView xWindow="6285" yWindow="465" windowWidth="21375" windowHeight="17535" firstSheet="8" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Coke" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1700" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1684" uniqueCount="238">
   <si>
     <t>combustion</t>
   </si>
@@ -3063,10 +3063,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3302,7 +3302,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="23"/>
       <c r="B11" s="28" t="s">
         <v>177</v>
@@ -3320,60 +3320,6 @@
         <v>14</v>
       </c>
       <c r="G11" s="23"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="33" t="s">
-        <v>216</v>
-      </c>
-      <c r="C12" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="G12" s="33" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="33" t="s">
-        <v>224</v>
-      </c>
-      <c r="E14" s="33" t="s">
-        <v>4</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3384,7 +3330,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>

--- a/data/shared/shared_calcs.xlsx
+++ b/data/shared/shared_calcs.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\BlackBlox\data\shared\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/shared/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85D92EE1-7BD6-1E45-B739-19A9C923A239}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6285" yWindow="465" windowWidth="21375" windowHeight="17535" firstSheet="8" activeTab="14"/>
+    <workbookView xWindow="6280" yWindow="460" windowWidth="21380" windowHeight="17540" firstSheet="8" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Coke" sheetId="1" r:id="rId1"/>
@@ -37,12 +38,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -623,9 +618,6 @@
     <t>O2 factory use</t>
   </si>
   <si>
-    <t>electricity turbine use</t>
-  </si>
-  <si>
     <t>heat turbine use</t>
   </si>
   <si>
@@ -671,9 +663,6 @@
     <t>CONSUMED O2 factory use</t>
   </si>
   <si>
-    <t>CONSUMED electricity turbine use</t>
-  </si>
-  <si>
     <t>CONSUMED heat turbine use</t>
   </si>
   <si>
@@ -762,12 +751,18 @@
   </si>
   <si>
     <t>captured CO2__process</t>
+  </si>
+  <si>
+    <t>CONSUMED generator use (electricity)</t>
+  </si>
+  <si>
+    <t>generator use  (electricity)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -968,8 +963,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 3" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1280,21 +1275,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>29</v>
       </c>
@@ -1326,7 +1321,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1349,7 +1344,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1372,7 +1367,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1395,7 +1390,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
         <v>121</v>
       </c>
@@ -1418,7 +1413,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
         <v>121</v>
       </c>
@@ -1438,7 +1433,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>121</v>
       </c>
@@ -1461,7 +1456,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
         <v>121</v>
       </c>
@@ -1481,7 +1476,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>19</v>
       </c>
@@ -1504,7 +1499,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
@@ -1524,7 +1519,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>179</v>
       </c>
@@ -1544,7 +1539,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>179</v>
       </c>
@@ -1570,21 +1565,21 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
@@ -1616,12 +1611,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -1639,12 +1634,12 @@
         <v>157</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -1662,7 +1657,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" s="22" t="s">
         <v>19</v>
       </c>
@@ -1679,12 +1674,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>1</v>
@@ -1702,7 +1697,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="33" t="s">
         <v>93</v>
@@ -1721,12 +1716,12 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C7" s="34" t="s">
         <v>1</v>
@@ -1744,15 +1739,15 @@
         <v>159</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" s="34" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C8" s="34" t="s">
         <v>1</v>
       </c>
       <c r="D8" s="34" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E8" s="34" t="s">
         <v>11</v>
@@ -1761,21 +1756,21 @@
         <v>34</v>
       </c>
       <c r="G8" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>179</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C9" s="31" t="s">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>2</v>
@@ -1784,16 +1779,16 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" t="s">
+        <v>194</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="34" t="s">
         <v>195</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="34" t="s">
-        <v>196</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>1</v>
@@ -1802,9 +1797,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B11" s="35" t="s">
         <v>173</v>
@@ -1813,7 +1808,7 @@
         <v>2</v>
       </c>
       <c r="D11" s="34" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>4</v>
@@ -1822,18 +1817,18 @@
         <v>8</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12" s="35" t="s">
+        <v>217</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="34" t="s">
         <v>219</v>
-      </c>
-      <c r="C12" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="34" t="s">
-        <v>221</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>1</v>
@@ -1842,7 +1837,7 @@
         <v>8</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -1851,20 +1846,20 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A26" sqref="A26:G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="21.625" customWidth="1"/>
-    <col min="4" max="4" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
@@ -1896,7 +1891,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="22" t="s">
         <v>145</v>
       </c>
@@ -1922,7 +1917,7 @@
       <c r="I2" s="22"/>
       <c r="J2" s="22"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1946,7 +1941,7 @@
       </c>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="21" t="s">
         <v>141</v>
@@ -1968,7 +1963,7 @@
       </c>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="21" t="s">
         <v>141</v>
@@ -1990,7 +1985,7 @@
       </c>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="10" t="s">
         <v>93</v>
@@ -2010,7 +2005,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="10" t="s">
         <v>54</v>
@@ -2030,7 +2025,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>19</v>
       </c>
@@ -2053,7 +2048,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" s="22" t="s">
         <v>19</v>
       </c>
@@ -2070,7 +2065,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>73</v>
       </c>
@@ -2093,7 +2088,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>167</v>
       </c>
@@ -2116,7 +2111,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>170</v>
       </c>
@@ -2139,7 +2134,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>106</v>
       </c>
@@ -2162,7 +2157,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" s="22" t="s">
         <v>144</v>
       </c>
@@ -2182,7 +2177,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="23" t="s">
         <v>150</v>
       </c>
@@ -2205,7 +2200,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="23"/>
       <c r="B16" s="28" t="s">
         <v>177</v>
@@ -2224,7 +2219,7 @@
       </c>
       <c r="G16" s="23"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>146</v>
       </c>
@@ -2250,7 +2245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B18" s="24" t="s">
         <v>144</v>
       </c>
@@ -2267,7 +2262,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B19" s="24" t="s">
         <v>159</v>
       </c>
@@ -2290,7 +2285,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B20" s="24" t="s">
         <v>73</v>
       </c>
@@ -2313,7 +2308,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>172</v>
       </c>
@@ -2336,7 +2331,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>173</v>
       </c>
@@ -2359,7 +2354,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B23" s="22" t="s">
         <v>162</v>
       </c>
@@ -2382,7 +2377,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>179</v>
       </c>
@@ -2402,7 +2397,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>179</v>
       </c>
@@ -2413,7 +2408,7 @@
         <v>2</v>
       </c>
       <c r="D25" s="34" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>1</v>
@@ -2422,9 +2417,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B26" s="35" t="s">
         <v>173</v>
@@ -2433,7 +2428,7 @@
         <v>2</v>
       </c>
       <c r="D26" s="34" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>4</v>
@@ -2442,18 +2437,18 @@
         <v>8</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B27" s="35" t="s">
+        <v>217</v>
+      </c>
+      <c r="C27" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="34" t="s">
         <v>219</v>
-      </c>
-      <c r="C27" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" s="34" t="s">
-        <v>221</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>1</v>
@@ -2462,7 +2457,7 @@
         <v>8</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -2471,16 +2466,16 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
@@ -2514,7 +2509,7 @@
       <c r="K1" s="9"/>
       <c r="L1" s="9"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>75</v>
       </c>
@@ -2542,7 +2537,7 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>75</v>
       </c>
@@ -2570,7 +2565,7 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>72</v>
       </c>
@@ -2598,7 +2593,7 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>72</v>
       </c>
@@ -2624,7 +2619,7 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>179</v>
       </c>
@@ -2650,7 +2645,7 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>179</v>
       </c>
@@ -2661,7 +2656,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="34" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>1</v>
@@ -2682,26 +2677,26 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="1"/>
-    <col min="2" max="2" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="1"/>
+    <col min="2" max="2" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.875" style="1"/>
+    <col min="4" max="4" width="17.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
@@ -2733,7 +2728,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B2" s="15" t="s">
         <v>19</v>
       </c>
@@ -2753,7 +2748,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2773,7 +2768,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" s="23" t="s">
         <v>19</v>
       </c>
@@ -2793,7 +2788,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>179</v>
       </c>
@@ -2804,7 +2799,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>191</v>
+        <v>237</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>2</v>
@@ -2813,18 +2808,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>179</v>
       </c>
       <c r="B6" t="s">
-        <v>191</v>
+        <v>237</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>207</v>
+        <v>236</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>1</v>
@@ -2839,16 +2834,16 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
@@ -2880,7 +2875,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9"/>
       <c r="B2" s="35" t="s">
         <v>111</v>
@@ -2889,7 +2884,7 @@
         <v>116</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E2" s="35" t="s">
         <v>4</v>
@@ -2904,7 +2899,7 @@
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="9"/>
       <c r="B3" s="35" t="s">
         <v>54</v>
@@ -2913,7 +2908,7 @@
         <v>79</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E3" s="35" t="s">
         <v>4</v>
@@ -2928,16 +2923,16 @@
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9"/>
       <c r="B4" s="35" t="s">
         <v>111</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E4" s="35" t="s">
         <v>4</v>
@@ -2952,7 +2947,7 @@
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
     </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="B5" s="33" t="s">
         <v>93</v>
       </c>
@@ -2960,7 +2955,7 @@
         <v>78</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E5" s="35" t="s">
         <v>4</v>
@@ -2972,7 +2967,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>72</v>
       </c>
@@ -2995,7 +2990,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>72</v>
       </c>
@@ -3016,7 +3011,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>179</v>
       </c>
@@ -3027,7 +3022,7 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>2</v>
@@ -3036,18 +3031,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>179</v>
       </c>
       <c r="B9" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="34" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>1</v>
@@ -3062,26 +3057,26 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="1"/>
-    <col min="2" max="2" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="1"/>
+    <col min="2" max="2" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.875" style="1"/>
+    <col min="4" max="4" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
@@ -3113,7 +3108,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="23" t="s">
         <v>106</v>
       </c>
@@ -3139,7 +3134,7 @@
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" s="13" t="s">
         <v>106</v>
       </c>
@@ -3162,7 +3157,7 @@
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" s="13" t="s">
         <v>107</v>
       </c>
@@ -3170,7 +3165,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>39</v>
@@ -3182,7 +3177,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" s="13" t="s">
         <v>107</v>
       </c>
@@ -3202,12 +3197,12 @@
         <v>110</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="23" t="s">
         <v>72</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>39</v>
@@ -3225,7 +3220,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" s="15" t="s">
         <v>19</v>
       </c>
@@ -3242,9 +3237,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" s="33" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>39</v>
@@ -3262,7 +3257,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" s="15" t="s">
         <v>111</v>
       </c>
@@ -3279,12 +3274,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="23" t="s">
         <v>150</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C10" s="23" t="s">
         <v>1</v>
@@ -3302,7 +3297,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="23"/>
       <c r="B11" s="28" t="s">
         <v>177</v>
@@ -3327,27 +3322,27 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="1"/>
-    <col min="2" max="2" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="1"/>
+    <col min="2" max="2" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.875" style="1"/>
+    <col min="4" max="4" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
@@ -3379,9 +3374,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="33" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>106</v>
@@ -3390,7 +3385,7 @@
         <v>37</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>4</v>
@@ -3405,7 +3400,7 @@
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" s="13" t="s">
         <v>106</v>
       </c>
@@ -3428,15 +3423,15 @@
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" s="35" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E4" s="33" t="s">
         <v>4</v>
@@ -3448,9 +3443,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" s="35" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>4</v>
@@ -3468,12 +3463,12 @@
         <v>110</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="33" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>4</v>
@@ -3488,10 +3483,10 @@
         <v>34</v>
       </c>
       <c r="G6" s="33" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="33"/>
       <c r="B7" s="33" t="s">
         <v>13</v>
@@ -3509,7 +3504,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="33"/>
       <c r="B8" s="33" t="s">
         <v>13</v>
@@ -3518,7 +3513,7 @@
         <v>37</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E8" s="33" t="s">
         <v>4</v>
@@ -3527,18 +3522,18 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="33" t="s">
+        <v>226</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>223</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="33" t="s">
         <v>228</v>
-      </c>
-      <c r="B9" s="35" t="s">
-        <v>225</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="33" t="s">
-        <v>230</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>4</v>
@@ -3547,12 +3542,12 @@
         <v>8</v>
       </c>
       <c r="G9" s="36" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10" s="33" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>4</v>
@@ -3567,12 +3562,12 @@
         <v>8</v>
       </c>
       <c r="G10" s="36" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" s="33" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>4</v>
@@ -3587,10 +3582,10 @@
         <v>7</v>
       </c>
       <c r="G11" s="36" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12" s="33" t="s">
         <v>93</v>
       </c>
@@ -3607,7 +3602,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" s="33" t="s">
         <v>54</v>
       </c>
@@ -3624,7 +3619,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="33" t="s">
         <v>93</v>
       </c>
@@ -3632,19 +3627,19 @@
         <v>2</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E14" s="33" t="s">
         <v>4</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G14" s="33" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="33" t="s">
         <v>54</v>
       </c>
@@ -3652,30 +3647,30 @@
         <v>37</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E15" s="33" t="s">
         <v>4</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G15" s="33" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="33" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B16" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="33" t="s">
         <v>234</v>
-      </c>
-      <c r="C16" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="33" t="s">
-        <v>236</v>
       </c>
       <c r="E16" s="33" t="s">
         <v>4</v>
@@ -3685,21 +3680,21 @@
       </c>
       <c r="G16" s="33"/>
       <c r="H16" s="33" t="s">
+        <v>233</v>
+      </c>
+      <c r="I16" s="33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="33" t="s">
         <v>235</v>
-      </c>
-      <c r="I16" s="33" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="33" t="s">
-        <v>236</v>
-      </c>
-      <c r="C17" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="33" t="s">
-        <v>237</v>
       </c>
       <c r="E17" s="33" t="s">
         <v>4</v>
@@ -3709,21 +3704,21 @@
       </c>
       <c r="G17" s="33"/>
       <c r="H17" s="33" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="I17" s="33" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="33" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C18" s="33" t="s">
         <v>4</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E18" s="33" t="s">
         <v>39</v>
@@ -3733,18 +3728,18 @@
       </c>
       <c r="G18" s="33"/>
       <c r="H18" s="33" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="I18" s="33" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="33" t="s">
         <v>19</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C19" s="33" t="s">
         <v>39</v>
@@ -3764,7 +3759,7 @@
       <c r="H19" s="33"/>
       <c r="I19" s="33"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B20" s="15" t="s">
         <v>19</v>
       </c>
@@ -3781,12 +3776,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="33" t="s">
         <v>73</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C21" s="33" t="s">
         <v>39</v>
@@ -3811,26 +3806,26 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="1"/>
-    <col min="2" max="2" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="1"/>
+    <col min="2" max="2" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.875" style="1"/>
+    <col min="4" max="4" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
@@ -3862,7 +3857,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="23" t="s">
         <v>106</v>
       </c>
@@ -3888,7 +3883,7 @@
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" s="13" t="s">
         <v>106</v>
       </c>
@@ -3911,7 +3906,7 @@
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" s="13" t="s">
         <v>107</v>
       </c>
@@ -3919,7 +3914,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>39</v>
@@ -3931,7 +3926,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" s="13" t="s">
         <v>107</v>
       </c>
@@ -3951,12 +3946,12 @@
         <v>110</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="23" t="s">
         <v>72</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>39</v>
@@ -3974,7 +3969,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" s="15" t="s">
         <v>19</v>
       </c>
@@ -3991,9 +3986,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" s="33" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>39</v>
@@ -4011,7 +4006,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" s="15" t="s">
         <v>111</v>
       </c>
@@ -4028,12 +4023,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="23" t="s">
         <v>150</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C10" s="23" t="s">
         <v>1</v>
@@ -4051,7 +4046,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="23"/>
       <c r="B11" s="28" t="s">
         <v>177</v>
@@ -4076,16 +4071,16 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
@@ -4117,12 +4112,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="23" t="s">
         <v>106</v>
       </c>
       <c r="B2" s="35" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>37</v>
@@ -4137,15 +4132,15 @@
         <v>7</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" s="35" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>37</v>
@@ -4160,10 +4155,10 @@
         <v>8</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="s">
         <v>72</v>
       </c>
@@ -4186,7 +4181,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="15" t="s">
         <v>19</v>
@@ -4211,22 +4206,22 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
@@ -4258,7 +4253,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B2" s="16" t="s">
         <v>119</v>
       </c>
@@ -4278,7 +4273,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" s="16" t="s">
         <v>119</v>
       </c>
@@ -4298,7 +4293,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>156</v>
       </c>
@@ -4318,7 +4313,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>12</v>
       </c>
@@ -4335,7 +4330,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>119</v>
       </c>
@@ -4355,7 +4350,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>175</v>
       </c>
@@ -4372,7 +4367,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>156</v>
       </c>
@@ -4398,16 +4393,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>29</v>
       </c>
@@ -4439,7 +4434,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>36</v>
       </c>
@@ -4462,7 +4457,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>36</v>
       </c>
@@ -4485,7 +4480,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -4511,7 +4506,7 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -4537,7 +4532,7 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>19</v>
       </c>
@@ -4560,7 +4555,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>19</v>
       </c>
@@ -4580,7 +4575,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>179</v>
       </c>
@@ -4601,7 +4596,7 @@
       </c>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>179</v>
       </c>
@@ -4612,7 +4607,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="34" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>1</v>
@@ -4628,20 +4623,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="23.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>29</v>
       </c>
@@ -4673,7 +4668,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -4696,7 +4691,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -4716,7 +4711,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -4739,7 +4734,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -4762,7 +4757,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -4782,7 +4777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -4802,7 +4797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>59</v>
       </c>
@@ -4825,7 +4820,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>59</v>
       </c>
@@ -4848,7 +4843,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
@@ -4871,7 +4866,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
@@ -4891,7 +4886,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>179</v>
       </c>
@@ -4911,7 +4906,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>179</v>
       </c>
@@ -4922,7 +4917,7 @@
         <v>2</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>1</v>
@@ -4937,20 +4932,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2:G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="23.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>29</v>
       </c>
@@ -4982,7 +4977,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -5005,7 +5000,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -5025,7 +5020,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -5048,7 +5043,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -5071,7 +5066,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -5091,7 +5086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -5111,7 +5106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>32</v>
       </c>
@@ -5134,7 +5129,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>32</v>
       </c>
@@ -5157,7 +5152,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
@@ -5180,7 +5175,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
@@ -5200,7 +5195,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>179</v>
       </c>
@@ -5220,7 +5215,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>179</v>
       </c>
@@ -5231,7 +5226,7 @@
         <v>2</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E13" s="32" t="s">
         <v>1</v>
@@ -5246,20 +5241,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="23.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>29</v>
       </c>
@@ -5291,7 +5286,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
@@ -5314,7 +5309,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>15</v>
       </c>
@@ -5337,7 +5332,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>52</v>
       </c>
@@ -5360,7 +5355,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>52</v>
       </c>
@@ -5380,7 +5375,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>52</v>
       </c>
@@ -5403,7 +5398,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>52</v>
       </c>
@@ -5426,7 +5421,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>52</v>
       </c>
@@ -5446,7 +5441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>52</v>
       </c>
@@ -5466,7 +5461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
         <v>132</v>
       </c>
@@ -5489,7 +5484,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
         <v>132</v>
       </c>
@@ -5509,7 +5504,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
         <v>132</v>
       </c>
@@ -5532,7 +5527,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
         <v>132</v>
       </c>
@@ -5555,7 +5550,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
         <v>132</v>
       </c>
@@ -5575,7 +5570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="18" t="s">
         <v>132</v>
       </c>
@@ -5596,7 +5591,7 @@
       </c>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="18" t="s">
         <v>132</v>
       </c>
@@ -5620,7 +5615,7 @@
       </c>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>19</v>
       </c>
@@ -5643,7 +5638,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>19</v>
       </c>
@@ -5663,7 +5658,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
         <v>10</v>
       </c>
@@ -5686,7 +5681,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>10</v>
       </c>
@@ -5706,7 +5701,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>9</v>
       </c>
@@ -5732,7 +5727,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>9</v>
       </c>
@@ -5758,7 +5753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>179</v>
       </c>
@@ -5778,7 +5773,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>179</v>
       </c>
@@ -5789,7 +5784,7 @@
         <v>2</v>
       </c>
       <c r="D24" s="34" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>1</v>
@@ -5804,20 +5799,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="A7:G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15.625" customWidth="1"/>
-    <col min="4" max="4" width="22.625" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
@@ -5849,7 +5844,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="22" t="s">
         <v>139</v>
       </c>
@@ -5872,7 +5867,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" s="22" t="s">
         <v>155</v>
       </c>
@@ -5892,7 +5887,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" s="22" t="s">
         <v>19</v>
       </c>
@@ -5909,7 +5904,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>73</v>
       </c>
@@ -5932,7 +5927,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" s="22" t="s">
         <v>73</v>
       </c>
@@ -5949,7 +5944,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -5972,7 +5967,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
@@ -5995,7 +5990,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
@@ -6018,7 +6013,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
@@ -6038,7 +6033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
@@ -6058,7 +6053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>142</v>
       </c>
@@ -6084,7 +6079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>179</v>
       </c>
@@ -6104,7 +6099,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>179</v>
       </c>
@@ -6115,7 +6110,7 @@
         <v>2</v>
       </c>
       <c r="D14" s="34" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>1</v>
@@ -6131,21 +6126,21 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>29</v>
       </c>
@@ -6177,7 +6172,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -6200,7 +6195,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -6223,7 +6218,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>16</v>
       </c>
@@ -6250,7 +6245,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>16</v>
       </c>
@@ -6277,7 +6272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>64</v>
       </c>
@@ -6300,7 +6295,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>64</v>
       </c>
@@ -6320,7 +6315,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>64</v>
       </c>
@@ -6343,7 +6338,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>64</v>
       </c>
@@ -6366,7 +6361,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>64</v>
       </c>
@@ -6386,7 +6381,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>64</v>
       </c>
@@ -6406,7 +6401,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>10</v>
       </c>
@@ -6429,7 +6424,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>10</v>
       </c>
@@ -6450,7 +6445,7 @@
       </c>
       <c r="G13" s="5"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>19</v>
       </c>
@@ -6473,7 +6468,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>19</v>
       </c>
@@ -6493,7 +6488,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>82</v>
       </c>
@@ -6516,7 +6511,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>82</v>
       </c>
@@ -6536,7 +6531,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>179</v>
       </c>
@@ -6556,7 +6551,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>179</v>
       </c>
@@ -6567,7 +6562,7 @@
         <v>2</v>
       </c>
       <c r="D19" s="34" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>1</v>
@@ -6582,20 +6577,20 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
@@ -6627,7 +6622,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -6650,7 +6645,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>33</v>
       </c>
@@ -6670,7 +6665,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -6693,7 +6688,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>126</v>
       </c>
@@ -6716,7 +6711,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>104</v>
       </c>
@@ -6739,7 +6734,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>138</v>
       </c>
@@ -6762,7 +6757,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>106</v>
       </c>
@@ -6785,7 +6780,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>12</v>
       </c>
@@ -6802,7 +6797,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>72</v>
       </c>
@@ -6825,7 +6820,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>19</v>
       </c>
@@ -6842,7 +6837,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>33</v>
       </c>
@@ -6862,7 +6857,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>129</v>
       </c>
@@ -6882,7 +6877,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>129</v>
       </c>
@@ -6902,7 +6897,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>54</v>
       </c>
@@ -6919,7 +6914,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>3</v>
       </c>
@@ -6936,7 +6931,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>73</v>
       </c>
@@ -6959,7 +6954,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>73</v>
       </c>
@@ -6976,7 +6971,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>179</v>
       </c>
@@ -6996,7 +6991,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>179</v>
       </c>
@@ -7007,7 +7002,7 @@
         <v>2</v>
       </c>
       <c r="D20" s="34" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>1</v>
@@ -7022,16 +7017,16 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
@@ -7054,7 +7049,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="22" t="s">
         <v>16</v>
       </c>
@@ -7077,7 +7072,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="9"/>
       <c r="B3" s="22" t="s">
         <v>33</v>
@@ -7098,7 +7093,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="9"/>
       <c r="B4" s="27" t="s">
         <v>147</v>
@@ -7117,7 +7112,7 @@
       </c>
       <c r="G4" s="22"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="9"/>
       <c r="B5" s="27" t="s">
         <v>176</v>
@@ -7136,7 +7131,7 @@
       </c>
       <c r="G5" s="22"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -7159,7 +7154,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B7" s="22" t="s">
         <v>19</v>
       </c>
@@ -7176,7 +7171,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>73</v>
       </c>
@@ -7199,7 +7194,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B9" s="22" t="s">
         <v>73</v>
       </c>
@@ -7216,7 +7211,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>10</v>
       </c>
@@ -7239,7 +7234,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="5" t="s">
         <v>38</v>
@@ -7258,7 +7253,7 @@
       </c>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>179</v>
       </c>
@@ -7278,7 +7273,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" t="s">
         <v>187</v>
@@ -7287,7 +7282,7 @@
         <v>2</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>1</v>
@@ -7296,9 +7291,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B14" s="35" t="s">
         <v>33</v>
@@ -7307,7 +7302,7 @@
         <v>2</v>
       </c>
       <c r="D14" s="34" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>2</v>
@@ -7316,15 +7311,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B15" s="35" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D15" s="34" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>1</v>

--- a/data/shared/shared_calcs.xlsx
+++ b/data/shared/shared_calcs.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\BlackBlox\data\shared\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/shared/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE03908B-765A-0E46-8A3F-00EA473A403B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6285" yWindow="465" windowWidth="21375" windowHeight="17535" activeTab="6"/>
+    <workbookView xWindow="6280" yWindow="460" windowWidth="21380" windowHeight="17540" firstSheet="3" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lime" sheetId="4" r:id="rId1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="151">
   <si>
     <t>combustion</t>
   </si>
@@ -70,9 +71,6 @@
     <t>emissions</t>
   </si>
   <si>
-    <t>CO2__emitted</t>
-  </si>
-  <si>
     <t>CaCO3</t>
   </si>
   <si>
@@ -271,9 +269,6 @@
     <t>Solvent demand</t>
   </si>
   <si>
-    <t>CO2__pure</t>
-  </si>
-  <si>
     <t>CO2 pure</t>
   </si>
   <si>
@@ -482,12 +477,24 @@
   </si>
   <si>
     <t>energy use</t>
+  </si>
+  <si>
+    <t>CO2__bio</t>
+  </si>
+  <si>
+    <t>CO2__capture losses</t>
+  </si>
+  <si>
+    <t>CO2__bio (pure)</t>
+  </si>
+  <si>
+    <t>CO2__fossil</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -651,8 +658,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 3" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -963,99 +970,99 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>1</v>
@@ -1064,22 +1071,22 @@
         <v>8</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>11</v>
+      <c r="D5" s="24" t="s">
+        <v>125</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>1</v>
@@ -1088,24 +1095,24 @@
         <v>7</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>2</v>
@@ -1114,79 +1121,79 @@
         <v>8</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" s="23" t="s">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>1</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E10" s="25" t="s">
         <v>4</v>
@@ -1195,83 +1202,83 @@
         <v>8</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" s="25" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C11" s="25" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F11" s="26" t="s">
         <v>8</v>
       </c>
       <c r="G11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12" s="26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G12" s="9"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" s="25" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C13" s="25" t="s">
         <v>4</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F13" s="26" t="s">
         <v>7</v>
       </c>
       <c r="G13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" s="24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G14" s="9"/>
     </row>
@@ -1281,69 +1288,69 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="1"/>
-    <col min="2" max="2" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="1"/>
+    <col min="2" max="2" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.875" style="1"/>
+    <col min="4" max="4" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>56</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>57</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>4</v>
@@ -1352,191 +1359,191 @@
         <v>8</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>11</v>
+        <v>29</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>148</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>7</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="11" t="s">
-        <v>11</v>
+      <c r="D5" s="26" t="s">
+        <v>148</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="B10" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="17"/>
       <c r="B11" s="20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C11" s="17" t="s">
         <v>2</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>1</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G11" s="17"/>
     </row>
@@ -1546,59 +1553,59 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E2" s="26" t="s">
         <v>1</v>
@@ -1607,21 +1614,21 @@
         <v>7</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" s="26" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>11</v>
+        <v>148</v>
       </c>
       <c r="E3" s="26" t="s">
         <v>1</v>
@@ -1630,48 +1637,48 @@
         <v>8</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G5" s="1"/>
     </row>
@@ -1681,185 +1688,185 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B2" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F2" t="s">
         <v>7</v>
       </c>
       <c r="G2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>148</v>
       </c>
       <c r="E3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F3" t="s">
         <v>8</v>
       </c>
       <c r="G3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>150</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F4" t="s">
         <v>8</v>
       </c>
       <c r="G4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>11</v>
+        <v>150</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F6" t="s">
         <v>8</v>
       </c>
       <c r="G6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C8" t="s">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1868,127 +1875,128 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.33203125" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E2" t="s">
         <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
         <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>4</v>
@@ -1997,19 +2005,19 @@
         <v>8</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>4</v>
@@ -2019,99 +2027,99 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C7" s="25" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>11</v>
+        <v>147</v>
       </c>
       <c r="E7" s="25" t="s">
         <v>10</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" s="25" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C8" s="25" t="s">
         <v>1</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E8" s="25" t="s">
         <v>10</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G8" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B9" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
         <v>107</v>
       </c>
-      <c r="C9" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>109</v>
-      </c>
       <c r="E9" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>1</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C11" s="25" t="s">
         <v>2</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>4</v>
@@ -2120,18 +2128,18 @@
         <v>8</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="25" t="s">
         <v>122</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>124</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>1</v>
@@ -2140,7 +2148,7 @@
         <v>8</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2149,63 +2157,64 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:G27"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="21.625" customWidth="1"/>
-    <col min="4" max="4" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E2" s="16" t="s">
         <v>2</v>
@@ -2214,24 +2223,24 @@
         <v>8</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H2" s="16"/>
       <c r="I2" s="16"/>
       <c r="J2" s="16"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>4</v>
@@ -2240,20 +2249,20 @@
         <v>8</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>4</v>
@@ -2262,20 +2271,20 @@
         <v>8</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>4</v>
@@ -2284,20 +2293,20 @@
         <v>7</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>4</v>
@@ -2308,16 +2317,16 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>4</v>
@@ -2328,410 +2337,410 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C8" t="s">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
         <v>2</v>
       </c>
       <c r="F8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C10" t="s">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E10" t="s">
         <v>2</v>
       </c>
       <c r="F10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C11" t="s">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E11" t="s">
         <v>2</v>
       </c>
       <c r="F11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>94</v>
-      </c>
       <c r="B12" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C12" t="s">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E12" t="s">
         <v>2</v>
       </c>
       <c r="F12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G12" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C13" t="s">
         <v>1</v>
       </c>
       <c r="D13" t="s">
+        <v>149</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B14" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>147</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" t="s">
         <v>78</v>
       </c>
-      <c r="E13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F13" t="s">
-        <v>27</v>
-      </c>
-      <c r="G13" s="19" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="C14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" t="s">
-        <v>1</v>
-      </c>
-      <c r="F14" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="F15" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="G15" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="17"/>
       <c r="B16" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="17"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" t="s">
+        <v>149</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" t="s">
+        <v>82</v>
+      </c>
+      <c r="H17" t="s">
+        <v>147</v>
+      </c>
+      <c r="I17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B18" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>86</v>
+      </c>
+      <c r="E18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B19" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
+        <v>83</v>
+      </c>
+      <c r="E19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" t="s">
+        <v>82</v>
+      </c>
+      <c r="H19" t="s">
+        <v>86</v>
+      </c>
+      <c r="I19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B20" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>94</v>
+      </c>
+      <c r="E20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" t="s">
+        <v>82</v>
+      </c>
+      <c r="H20" t="s">
+        <v>92</v>
+      </c>
+      <c r="I20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
+        <v>91</v>
+      </c>
+      <c r="E21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" t="s">
+        <v>82</v>
+      </c>
+      <c r="H21" t="s">
+        <v>89</v>
+      </c>
+      <c r="I21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>95</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="E22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" t="s">
+        <v>82</v>
+      </c>
+      <c r="H22" t="s">
+        <v>91</v>
+      </c>
+      <c r="I22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B23" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
+        <v>85</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23" t="s">
+        <v>51</v>
+      </c>
+      <c r="H23" t="s">
+        <v>83</v>
+      </c>
+      <c r="I23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C16" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F16" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="17"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>75</v>
-      </c>
-      <c r="B17" t="s">
-        <v>78</v>
-      </c>
-      <c r="C17" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17" t="s">
-        <v>83</v>
-      </c>
-      <c r="E17" t="s">
-        <v>4</v>
-      </c>
-      <c r="F17" t="s">
-        <v>84</v>
-      </c>
-      <c r="H17" t="s">
-        <v>11</v>
-      </c>
-      <c r="I17" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="C18" t="s">
-        <v>1</v>
-      </c>
-      <c r="D18" t="s">
-        <v>88</v>
-      </c>
-      <c r="E18" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="C19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" t="s">
-        <v>85</v>
-      </c>
-      <c r="E19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F19" t="s">
-        <v>84</v>
-      </c>
-      <c r="H19" t="s">
-        <v>88</v>
-      </c>
-      <c r="I19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" t="s">
-        <v>2</v>
-      </c>
-      <c r="D20" t="s">
-        <v>96</v>
-      </c>
-      <c r="E20" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" t="s">
-        <v>84</v>
-      </c>
-      <c r="H20" t="s">
-        <v>94</v>
-      </c>
-      <c r="I20" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>96</v>
-      </c>
-      <c r="C21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" t="s">
-        <v>93</v>
-      </c>
-      <c r="E21" t="s">
-        <v>4</v>
-      </c>
-      <c r="F21" t="s">
-        <v>84</v>
-      </c>
-      <c r="H21" t="s">
-        <v>91</v>
-      </c>
-      <c r="I21" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>97</v>
-      </c>
-      <c r="C22" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="E22" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" t="s">
-        <v>84</v>
-      </c>
-      <c r="H22" t="s">
-        <v>93</v>
-      </c>
-      <c r="I22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="C23" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" t="s">
-        <v>87</v>
-      </c>
-      <c r="E23" t="s">
-        <v>1</v>
-      </c>
-      <c r="F23" t="s">
-        <v>52</v>
-      </c>
-      <c r="H23" t="s">
-        <v>85</v>
-      </c>
-      <c r="I23" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="B24" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
         <v>102</v>
       </c>
-      <c r="B24" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="C24" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="D24" t="s">
-        <v>104</v>
-      </c>
       <c r="E24" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F24" s="23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B25" t="s">
         <v>102</v>
       </c>
-      <c r="B25" t="s">
-        <v>104</v>
-      </c>
       <c r="C25" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>1</v>
       </c>
       <c r="F25" s="23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C26" s="25" t="s">
         <v>2</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>4</v>
@@ -2740,18 +2749,18 @@
         <v>8</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B27" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="25" t="s">
         <v>122</v>
-      </c>
-      <c r="C27" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" s="25" t="s">
-        <v>124</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>1</v>
@@ -2760,7 +2769,7 @@
         <v>8</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2769,61 +2778,61 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>1</v>
@@ -2832,7 +2841,7 @@
         <v>8</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -2840,27 +2849,27 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -2868,27 +2877,27 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -2896,24 +2905,24 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="1"/>
@@ -2922,24 +2931,24 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6" s="23" t="s">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -2948,24 +2957,24 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -2980,66 +2989,66 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="1"/>
-    <col min="2" max="2" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="1"/>
+    <col min="2" max="2" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.875" style="1"/>
+    <col min="4" max="4" width="17.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B2" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>4</v>
@@ -3048,87 +3057,87 @@
         <v>7</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B4" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" s="17" t="s">
         <v>49</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>50</v>
       </c>
       <c r="F4" s="17" t="s">
         <v>8</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="23" t="s">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F5" s="23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>1</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -3137,57 +3146,57 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8"/>
       <c r="B2" s="26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E2" s="26" t="s">
         <v>4</v>
@@ -3196,46 +3205,46 @@
         <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="8"/>
       <c r="B3" s="26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E3" s="26" t="s">
         <v>4</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8"/>
       <c r="B4" s="26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E4" s="26" t="s">
         <v>4</v>
@@ -3244,114 +3253,114 @@
         <v>7</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
     </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="B5" s="24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E5" s="26" t="s">
         <v>4</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G7" s="6"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C8" s="23" t="s">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>1</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -3360,99 +3369,99 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E2" t="s">
         <v>1</v>
       </c>
       <c r="F2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>147</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
       <c r="E4" t="s">
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -3461,69 +3470,69 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="1"/>
-    <col min="2" max="2" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="1"/>
+    <col min="2" max="2" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.875" style="1"/>
+    <col min="4" max="4" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>56</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>57</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>4</v>
@@ -3532,191 +3541,191 @@
         <v>8</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>11</v>
+        <v>29</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>148</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>7</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="11" t="s">
-        <v>11</v>
+      <c r="D5" s="26" t="s">
+        <v>148</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="B10" s="24" t="s">
-        <v>119</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17"/>
       <c r="B11" s="20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C11" s="17" t="s">
         <v>2</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>1</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G11" s="17"/>
     </row>
@@ -3726,70 +3735,70 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="1"/>
-    <col min="2" max="2" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="1"/>
+    <col min="2" max="2" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.875" style="1"/>
+    <col min="4" max="4" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="24" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>4</v>
@@ -3798,44 +3807,44 @@
         <v>8</v>
       </c>
       <c r="G2" s="28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>11</v>
+        <v>29</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>148</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>7</v>
       </c>
       <c r="G3" s="28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" s="26" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E4" s="24" t="s">
         <v>4</v>
@@ -3844,100 +3853,100 @@
         <v>8</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" s="26" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="11" t="s">
-        <v>11</v>
+      <c r="D5" s="26" t="s">
+        <v>148</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="24"/>
       <c r="B7" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="E7" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="F7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="24"/>
       <c r="B8" s="24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E8" s="24" t="s">
         <v>4</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="24" t="s">
         <v>131</v>
-      </c>
-      <c r="B9" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>133</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>4</v>
@@ -3946,18 +3955,18 @@
         <v>8</v>
       </c>
       <c r="G9" s="27" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10" s="24" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>4</v>
@@ -3966,18 +3975,18 @@
         <v>8</v>
       </c>
       <c r="G10" s="27" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" s="24" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>4</v>
@@ -3986,18 +3995,18 @@
         <v>7</v>
       </c>
       <c r="G11" s="27" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12" s="24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C12" s="24" t="s">
         <v>2</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>4</v>
@@ -4006,15 +4015,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C13" s="24" t="s">
         <v>2</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>4</v>
@@ -4023,58 +4032,58 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C14" s="24" t="s">
         <v>2</v>
       </c>
       <c r="D14" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G14" s="24" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G15" s="24" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="24" t="s">
         <v>137</v>
-      </c>
-      <c r="E14" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="G14" s="24" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="E15" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="G15" s="24" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="24" t="s">
-        <v>136</v>
-      </c>
-      <c r="B16" s="24" t="s">
-        <v>137</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="24" t="s">
-        <v>139</v>
       </c>
       <c r="E16" s="24" t="s">
         <v>4</v>
@@ -4084,21 +4093,21 @@
       </c>
       <c r="G16" s="24"/>
       <c r="H16" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="I16" s="24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="24" t="s">
         <v>138</v>
-      </c>
-      <c r="I16" s="24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="24" t="s">
-        <v>139</v>
-      </c>
-      <c r="C17" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="24" t="s">
-        <v>140</v>
       </c>
       <c r="E17" s="24" t="s">
         <v>4</v>
@@ -4108,99 +4117,99 @@
       </c>
       <c r="G17" s="24"/>
       <c r="H17" s="24" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I17" s="24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="24" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C18" s="24" t="s">
         <v>4</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F18" s="24" t="s">
         <v>5</v>
       </c>
       <c r="G18" s="24"/>
       <c r="H18" s="24" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I18" s="24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F19" s="24" t="s">
         <v>8</v>
       </c>
       <c r="G19" s="24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H19" s="24"/>
       <c r="I19" s="24"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B20" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F21" s="24" t="s">
         <v>8</v>
       </c>
       <c r="G21" s="24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/data/shared/shared_calcs.xlsx
+++ b/data/shared/shared_calcs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/shared/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE03908B-765A-0E46-8A3F-00EA473A403B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4B6E172-3B1F-7944-8A56-27C6ED636A4D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6280" yWindow="460" windowWidth="21380" windowHeight="17540" firstSheet="3" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6340" yWindow="460" windowWidth="21380" windowHeight="17540" firstSheet="3" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lime" sheetId="4" r:id="rId1"/>
@@ -22,9 +22,8 @@
     <sheet name="WWT" sheetId="26" r:id="rId7"/>
     <sheet name="CO2 Capture" sheetId="13" r:id="rId8"/>
     <sheet name="CLC Capture" sheetId="25" r:id="rId9"/>
-    <sheet name="CO2 Cap Aux" sheetId="23" r:id="rId10"/>
-    <sheet name="CO2 Compress" sheetId="24" r:id="rId11"/>
-    <sheet name="CO2 Storage" sheetId="14" r:id="rId12"/>
+    <sheet name="CO2 Compress" sheetId="24" r:id="rId10"/>
+    <sheet name="CO2 Storage" sheetId="14" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="154">
   <si>
     <t>combustion</t>
   </si>
@@ -326,12 +325,6 @@
     <t>feedstock</t>
   </si>
   <si>
-    <t>Pipeline Distance</t>
-  </si>
-  <si>
-    <t>Transport of CO2  **IN TKM**</t>
-  </si>
-  <si>
     <t>solvent (MEA)</t>
   </si>
   <si>
@@ -489,6 +482,21 @@
   </si>
   <si>
     <t>CO2__fossil</t>
+  </si>
+  <si>
+    <t>DISPOSAL - spent solvent</t>
+  </si>
+  <si>
+    <t>Transport of CO2 Onshore **IN TKM**</t>
+  </si>
+  <si>
+    <t>Transport of CO2 Offshore **IN TKM**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Offshore Distance </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Onshore Distance </t>
   </si>
 </sst>
 </file>
@@ -1086,7 +1094,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>1</v>
@@ -1144,7 +1152,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>30</v>
@@ -1153,7 +1161,7 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>2</v>
@@ -1166,13 +1174,13 @@
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>1</v>
@@ -1184,7 +1192,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B10" s="25" t="s">
         <v>30</v>
@@ -1193,7 +1201,7 @@
         <v>65</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E10" s="25" t="s">
         <v>4</v>
@@ -1202,13 +1210,13 @@
         <v>8</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" s="25" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C11" s="25" t="s">
         <v>4</v>
@@ -1246,13 +1254,13 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" s="25" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C13" s="25" t="s">
         <v>4</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E13" s="26" t="s">
         <v>65</v>
@@ -1272,7 +1280,7 @@
         <v>48</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E14" s="26" t="s">
         <v>65</v>
@@ -1288,276 +1296,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:J11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="8.83203125" style="1"/>
-    <col min="2" max="2" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.83203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B3" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="26" t="s">
-        <v>148</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B4" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B5" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="26" t="s">
-        <v>148</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B7" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B8" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B9" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="17"/>
-      <c r="B11" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="17"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1599,7 +1342,7 @@
         <v>55</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>29</v>
@@ -1614,7 +1357,7 @@
         <v>7</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
@@ -1622,13 +1365,13 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" s="26" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>29</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E3" s="26" t="s">
         <v>1</v>
@@ -1637,7 +1380,7 @@
         <v>8</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -1687,12 +1430,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1763,7 +1506,7 @@
         <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E3" t="s">
         <v>58</v>
@@ -1783,7 +1526,7 @@
         <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E4" t="s">
         <v>31</v>
@@ -1797,7 +1540,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C5" t="s">
         <v>31</v>
@@ -1820,7 +1563,7 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>97</v>
+        <v>150</v>
       </c>
       <c r="E6" t="s">
         <v>31</v>
@@ -1829,18 +1572,18 @@
         <v>8</v>
       </c>
       <c r="G6" t="s">
-        <v>96</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>97</v>
+        <v>150</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>97</v>
+        <v>150</v>
       </c>
       <c r="E7" t="s">
         <v>29</v>
@@ -1851,21 +1594,58 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>151</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>151</v>
+      </c>
+      <c r="E9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
         <v>79</v>
       </c>
-      <c r="C8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
         <v>14</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E10" t="s">
         <v>29</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F10" t="s">
         <v>26</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G10" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1924,10 +1704,10 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -1950,7 +1730,7 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -1990,7 +1770,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>1</v>
@@ -2032,13 +1812,13 @@
         <v>10</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C7" s="25" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E7" s="25" t="s">
         <v>10</v>
@@ -2052,13 +1832,13 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" s="25" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C8" s="25" t="s">
         <v>1</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E8" s="25" t="s">
         <v>10</v>
@@ -2067,21 +1847,21 @@
         <v>26</v>
       </c>
       <c r="G8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B9" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
         <v>105</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>107</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>2</v>
@@ -2093,13 +1873,13 @@
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>1</v>
@@ -2110,7 +1890,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B11" s="26" t="s">
         <v>95</v>
@@ -2119,7 +1899,7 @@
         <v>2</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>4</v>
@@ -2128,18 +1908,18 @@
         <v>8</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="25" t="s">
         <v>120</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>122</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>1</v>
@@ -2148,7 +1928,7 @@
         <v>8</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2457,7 +2237,7 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E13" t="s">
         <v>1</v>
@@ -2477,7 +2257,7 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E14" t="s">
         <v>1</v>
@@ -2500,7 +2280,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E15" s="17" t="s">
         <v>2</v>
@@ -2515,13 +2295,13 @@
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="17"/>
       <c r="B16" s="20" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C16" s="17" t="s">
         <v>2</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E16" s="17" t="s">
         <v>1</v>
@@ -2536,7 +2316,7 @@
         <v>74</v>
       </c>
       <c r="B17" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C17" t="s">
         <v>1</v>
@@ -2551,7 +2331,7 @@
         <v>82</v>
       </c>
       <c r="H17" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I17" t="s">
         <v>1</v>
@@ -2691,7 +2471,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B24" s="16" t="s">
         <v>72</v>
@@ -2700,7 +2480,7 @@
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>2</v>
@@ -2711,16 +2491,16 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B25" t="s">
         <v>100</v>
       </c>
-      <c r="B25" t="s">
-        <v>102</v>
-      </c>
       <c r="C25" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>1</v>
@@ -2731,7 +2511,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B26" s="26" t="s">
         <v>95</v>
@@ -2740,7 +2520,7 @@
         <v>2</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>4</v>
@@ -2749,18 +2529,18 @@
         <v>8</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B27" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="25" t="s">
         <v>120</v>
-      </c>
-      <c r="C27" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" s="25" t="s">
-        <v>122</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>1</v>
@@ -2769,7 +2549,7 @@
         <v>8</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2933,7 +2713,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>43</v>
@@ -2942,7 +2722,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>2</v>
@@ -2959,16 +2739,16 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>1</v>
@@ -3102,7 +2882,7 @@
     </row>
     <row r="5" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>14</v>
@@ -3111,7 +2891,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>2</v>
@@ -3122,16 +2902,16 @@
     </row>
     <row r="6" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>1</v>
@@ -3196,7 +2976,7 @@
         <v>65</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E2" s="26" t="s">
         <v>4</v>
@@ -3220,7 +3000,7 @@
         <v>49</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E3" s="26" t="s">
         <v>4</v>
@@ -3241,10 +3021,10 @@
         <v>60</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E4" s="26" t="s">
         <v>4</v>
@@ -3267,7 +3047,7 @@
         <v>48</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E5" s="26" t="s">
         <v>4</v>
@@ -3325,7 +3105,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B8" s="13" t="s">
         <v>60</v>
@@ -3334,7 +3114,7 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>2</v>
@@ -3345,16 +3125,16 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>1</v>
@@ -3412,13 +3192,13 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E2" t="s">
         <v>1</v>
@@ -3429,7 +3209,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -3473,7 +3253,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -3555,7 +3335,7 @@
         <v>29</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>58</v>
@@ -3578,7 +3358,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>31</v>
@@ -3598,7 +3378,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>58</v>
@@ -3615,7 +3395,7 @@
         <v>42</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>31</v>
@@ -3652,7 +3432,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" s="24" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>31</v>
@@ -3692,13 +3472,13 @@
         <v>75</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C10" s="17" t="s">
         <v>1</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E10" s="17" t="s">
         <v>2</v>
@@ -3713,13 +3493,13 @@
     <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17"/>
       <c r="B11" s="20" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C11" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="20" t="s">
-        <v>99</v>
+      <c r="D11" t="s">
+        <v>149</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>1</v>
@@ -3789,7 +3569,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="24" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>55</v>
@@ -3798,7 +3578,7 @@
         <v>29</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>4</v>
@@ -3821,7 +3601,7 @@
         <v>29</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>58</v>
@@ -3838,13 +3618,13 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B4" s="26" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E4" s="24" t="s">
         <v>4</v>
@@ -3858,13 +3638,13 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" s="26" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>58</v>
@@ -3881,7 +3661,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>4</v>
@@ -3896,7 +3676,7 @@
         <v>26</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -3926,7 +3706,7 @@
         <v>29</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E8" s="24" t="s">
         <v>4</v>
@@ -3937,16 +3717,16 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="24" t="s">
         <v>129</v>
-      </c>
-      <c r="B9" s="26" t="s">
-        <v>126</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>131</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>4</v>
@@ -3955,12 +3735,12 @@
         <v>8</v>
       </c>
       <c r="G9" s="27" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10" s="24" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>4</v>
@@ -3975,12 +3755,12 @@
         <v>8</v>
       </c>
       <c r="G10" s="27" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" s="24" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>4</v>
@@ -3995,7 +3775,7 @@
         <v>7</v>
       </c>
       <c r="G11" s="27" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -4040,16 +3820,16 @@
         <v>2</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E14" s="24" t="s">
         <v>4</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G14" s="24" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4060,30 +3840,30 @@
         <v>29</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E15" s="24" t="s">
         <v>4</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G15" s="24" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="24" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B16" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="24" t="s">
         <v>135</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="24" t="s">
-        <v>137</v>
       </c>
       <c r="E16" s="24" t="s">
         <v>4</v>
@@ -4093,7 +3873,7 @@
       </c>
       <c r="G16" s="24"/>
       <c r="H16" s="24" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I16" s="24" t="s">
         <v>4</v>
@@ -4101,13 +3881,13 @@
     </row>
     <row r="17" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="24" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C17" s="24" t="s">
         <v>4</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E17" s="24" t="s">
         <v>4</v>
@@ -4117,7 +3897,7 @@
       </c>
       <c r="G17" s="24"/>
       <c r="H17" s="24" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I17" s="24" t="s">
         <v>4</v>
@@ -4125,13 +3905,13 @@
     </row>
     <row r="18" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="24" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C18" s="24" t="s">
         <v>4</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E18" s="24" t="s">
         <v>31</v>
@@ -4141,7 +3921,7 @@
       </c>
       <c r="G18" s="24"/>
       <c r="H18" s="24" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I18" s="24" t="s">
         <v>4</v>
@@ -4152,7 +3932,7 @@
         <v>14</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C19" s="24" t="s">
         <v>31</v>
@@ -4194,7 +3974,7 @@
         <v>43</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C21" s="24" t="s">
         <v>31</v>
